--- a/server/test/data/blocks.xlsx
+++ b/server/test/data/blocks.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="15135" windowHeight="8130"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2182" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2183" uniqueCount="837">
   <si>
     <t>BLOCO</t>
   </si>
@@ -2527,13 +2527,16 @@
   </si>
   <si>
     <t>REC-T-71_R13</t>
+  </si>
+  <si>
+    <t>Atualizações</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2679,7 +2682,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -2716,24 +2719,30 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2812,6 +2821,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2846,6 +2856,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -3021,14 +3032,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K358"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L358"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="8" width="18.5703125" customWidth="1"/>
     <col min="9" max="9" width="25.28515625" bestFit="1" customWidth="1"/>
@@ -3036,7 +3047,7 @@
     <col min="11" max="11" width="73.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="10" customFormat="1" ht="15.75">
+    <row r="1" spans="1:12" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -3045,14 +3056,14 @@
       <c r="H1" s="11"/>
       <c r="I1" s="9"/>
     </row>
-    <row r="2" spans="1:11" s="10" customFormat="1" ht="15.75">
+    <row r="2" spans="1:12" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:11" s="10" customFormat="1" ht="18.75">
+    <row r="3" spans="1:12" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -3065,52 +3076,52 @@
       <c r="H3" s="11"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="1:11" s="10" customFormat="1" ht="15.75">
+    <row r="4" spans="1:12" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="9"/>
     </row>
-    <row r="5" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:12" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-    </row>
-    <row r="6" spans="1:11" s="10" customFormat="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-    </row>
-    <row r="7" spans="1:11" s="10" customFormat="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-    </row>
-    <row r="8" spans="1:11" s="10" customFormat="1">
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+    </row>
+    <row r="6" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+    </row>
+    <row r="7" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+    </row>
+    <row r="8" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E8" s="8"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -3118,21 +3129,21 @@
       <c r="I8" s="7"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:12" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-    </row>
-    <row r="10" spans="1:11" s="10" customFormat="1">
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+    </row>
+    <row r="10" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -3144,14 +3155,14 @@
       <c r="I10" s="7"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1">
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="19" t="s">
         <v>734</v>
       </c>
       <c r="D11" s="12" t="s">
@@ -3172,21 +3183,24 @@
       <c r="I11" s="13" t="s">
         <v>738</v>
       </c>
-      <c r="J11" s="21" t="s">
+      <c r="J11" s="19" t="s">
         <v>730</v>
       </c>
-      <c r="K11" s="21" t="s">
+      <c r="K11" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" thickTop="1">
+      <c r="L11" s="26" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>724</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>725</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="20" t="s">
         <v>726</v>
       </c>
       <c r="D12" s="14" t="s">
@@ -3203,21 +3217,21 @@
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
-      <c r="J12" s="22" t="s">
+      <c r="J12" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K12" s="22" t="s">
+      <c r="K12" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="21" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="16" t="s">
@@ -3234,19 +3248,19 @@
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23" t="s">
+      <c r="J13" s="21"/>
+      <c r="K13" s="21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>657</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="20" t="s">
         <v>658</v>
       </c>
       <c r="D14" s="14" t="s">
@@ -3263,19 +3277,19 @@
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22" t="s">
+      <c r="J14" s="20"/>
+      <c r="K14" s="20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>659</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="21" t="s">
         <v>660</v>
       </c>
       <c r="D15" s="16" t="s">
@@ -3292,19 +3306,19 @@
       </c>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23" t="s">
+      <c r="J15" s="21"/>
+      <c r="K15" s="21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>661</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="20" t="s">
         <v>662</v>
       </c>
       <c r="D16" s="14" t="s">
@@ -3321,19 +3335,19 @@
       </c>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22" t="s">
+      <c r="J16" s="20"/>
+      <c r="K16" s="20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="21" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="16" t="s">
@@ -3350,19 +3364,19 @@
       </c>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23" t="s">
+      <c r="J17" s="21"/>
+      <c r="K17" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>638</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="20" t="s">
         <v>639</v>
       </c>
       <c r="D18" s="14" t="s">
@@ -3379,19 +3393,19 @@
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22" t="s">
+      <c r="J18" s="20"/>
+      <c r="K18" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="21" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="16" t="s">
@@ -3408,19 +3422,19 @@
       </c>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23" t="s">
+      <c r="J19" s="21"/>
+      <c r="K19" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="14" t="s">
@@ -3437,19 +3451,19 @@
       </c>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22" t="s">
+      <c r="J20" s="20"/>
+      <c r="K20" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="21" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="16" t="s">
@@ -3466,19 +3480,19 @@
       </c>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23" t="s">
+      <c r="J21" s="21"/>
+      <c r="K21" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="20" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="14" t="s">
@@ -3495,19 +3509,19 @@
       </c>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22" t="s">
+      <c r="J22" s="20"/>
+      <c r="K22" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="21" t="s">
         <v>24</v>
       </c>
       <c r="D23" s="16" t="s">
@@ -3524,19 +3538,19 @@
       </c>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23" t="s">
+      <c r="J23" s="21"/>
+      <c r="K23" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D24" s="14" t="s">
@@ -3553,19 +3567,19 @@
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22" t="s">
+      <c r="J24" s="20"/>
+      <c r="K24" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="21" t="s">
         <v>30</v>
       </c>
       <c r="D25" s="16" t="s">
@@ -3582,19 +3596,19 @@
       </c>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23" t="s">
+      <c r="J25" s="21"/>
+      <c r="K25" s="21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="20" t="s">
         <v>34</v>
       </c>
       <c r="D26" s="14" t="s">
@@ -3611,19 +3625,19 @@
       </c>
       <c r="H26" s="15"/>
       <c r="I26" s="15"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22" t="s">
+      <c r="J26" s="20"/>
+      <c r="K26" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="21" t="s">
         <v>36</v>
       </c>
       <c r="D27" s="16" t="s">
@@ -3640,19 +3654,19 @@
       </c>
       <c r="H27" s="17"/>
       <c r="I27" s="17"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23" t="s">
+      <c r="J27" s="21"/>
+      <c r="K27" s="21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D28" s="14" t="s">
@@ -3669,19 +3683,19 @@
       </c>
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22" t="s">
+      <c r="J28" s="20"/>
+      <c r="K28" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B29" s="16" t="s">
         <v>607</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="21" t="s">
         <v>608</v>
       </c>
       <c r="D29" s="16" t="s">
@@ -3698,19 +3712,19 @@
       </c>
       <c r="H29" s="17"/>
       <c r="I29" s="17"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23" t="s">
+      <c r="J29" s="21"/>
+      <c r="K29" s="21" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>609</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="20" t="s">
         <v>610</v>
       </c>
       <c r="D30" s="14" t="s">
@@ -3727,19 +3741,19 @@
       </c>
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22" t="s">
+      <c r="J30" s="20"/>
+      <c r="K30" s="20" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B31" s="16" t="s">
         <v>611</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="21" t="s">
         <v>612</v>
       </c>
       <c r="D31" s="16" t="s">
@@ -3756,19 +3770,19 @@
       </c>
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23" t="s">
+      <c r="J31" s="21"/>
+      <c r="K31" s="21" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>615</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="20" t="s">
         <v>616</v>
       </c>
       <c r="D32" s="14" t="s">
@@ -3785,19 +3799,19 @@
       </c>
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22" t="s">
+      <c r="J32" s="20"/>
+      <c r="K32" s="20" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B33" s="16" t="s">
         <v>617</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="21" t="s">
         <v>618</v>
       </c>
       <c r="D33" s="16" t="s">
@@ -3814,19 +3828,19 @@
       </c>
       <c r="H33" s="17"/>
       <c r="I33" s="17"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23" t="s">
+      <c r="J33" s="21"/>
+      <c r="K33" s="21" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>619</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="20" t="s">
         <v>620</v>
       </c>
       <c r="D34" s="14" t="s">
@@ -3843,19 +3857,19 @@
       </c>
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22" t="s">
+      <c r="J34" s="20"/>
+      <c r="K34" s="20" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="16" t="s">
         <v>621</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="21" t="s">
         <v>622</v>
       </c>
       <c r="D35" s="16" t="s">
@@ -3872,19 +3886,19 @@
       </c>
       <c r="H35" s="17"/>
       <c r="I35" s="17"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23" t="s">
+      <c r="J35" s="21"/>
+      <c r="K35" s="21" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>623</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="20" t="s">
         <v>624</v>
       </c>
       <c r="D36" s="14" t="s">
@@ -3901,19 +3915,19 @@
       </c>
       <c r="H36" s="15"/>
       <c r="I36" s="15"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22" t="s">
+      <c r="J36" s="20"/>
+      <c r="K36" s="20" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B37" s="16" t="s">
         <v>625</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="21" t="s">
         <v>626</v>
       </c>
       <c r="D37" s="16" t="s">
@@ -3930,19 +3944,19 @@
       </c>
       <c r="H37" s="17"/>
       <c r="I37" s="17"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23" t="s">
+      <c r="J37" s="21"/>
+      <c r="K37" s="21" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>603</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="20" t="s">
         <v>604</v>
       </c>
       <c r="D38" s="14" t="s">
@@ -3959,19 +3973,19 @@
       </c>
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22" t="s">
+      <c r="J38" s="20"/>
+      <c r="K38" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B39" s="16" t="s">
         <v>605</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="21" t="s">
         <v>606</v>
       </c>
       <c r="D39" s="16" t="s">
@@ -3988,19 +4002,19 @@
       </c>
       <c r="H39" s="17"/>
       <c r="I39" s="17"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23" t="s">
+      <c r="J39" s="21"/>
+      <c r="K39" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="20" t="s">
         <v>118</v>
       </c>
       <c r="D40" s="14" t="s">
@@ -4017,21 +4031,21 @@
       </c>
       <c r="H40" s="15"/>
       <c r="I40" s="15"/>
-      <c r="J40" s="22" t="s">
+      <c r="J40" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K40" s="22" t="s">
+      <c r="K40" s="20" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>43</v>
       </c>
       <c r="B41" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="21" t="s">
         <v>117</v>
       </c>
       <c r="D41" s="16" t="s">
@@ -4048,21 +4062,21 @@
       </c>
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
-      <c r="J41" s="23" t="s">
+      <c r="J41" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="K41" s="23" t="s">
+      <c r="K41" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="20" t="s">
         <v>52</v>
       </c>
       <c r="D42" s="14" t="s">
@@ -4079,21 +4093,21 @@
       </c>
       <c r="H42" s="15"/>
       <c r="I42" s="15"/>
-      <c r="J42" s="22" t="s">
+      <c r="J42" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="K42" s="22" t="s">
+      <c r="K42" s="20" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>46</v>
       </c>
       <c r="B43" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="21" t="s">
         <v>50</v>
       </c>
       <c r="D43" s="16" t="s">
@@ -4110,19 +4124,19 @@
       </c>
       <c r="H43" s="17"/>
       <c r="I43" s="17"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23" t="s">
+      <c r="J43" s="21"/>
+      <c r="K43" s="21" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>56</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="20" t="s">
         <v>93</v>
       </c>
       <c r="D44" s="14" t="s">
@@ -4139,19 +4153,19 @@
       </c>
       <c r="H44" s="15"/>
       <c r="I44" s="15"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22" t="s">
+      <c r="J44" s="20"/>
+      <c r="K44" s="20" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>56</v>
       </c>
       <c r="B45" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C45" s="23" t="s">
+      <c r="C45" s="21" t="s">
         <v>100</v>
       </c>
       <c r="D45" s="16" t="s">
@@ -4168,19 +4182,19 @@
       </c>
       <c r="H45" s="17"/>
       <c r="I45" s="17"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23" t="s">
+      <c r="J45" s="21"/>
+      <c r="K45" s="21" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>56</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C46" s="20" t="s">
         <v>102</v>
       </c>
       <c r="D46" s="14" t="s">
@@ -4197,19 +4211,19 @@
       </c>
       <c r="H46" s="15"/>
       <c r="I46" s="15"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22" t="s">
+      <c r="J46" s="20"/>
+      <c r="K46" s="20" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>56</v>
       </c>
       <c r="B47" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C47" s="23" t="s">
+      <c r="C47" s="21" t="s">
         <v>104</v>
       </c>
       <c r="D47" s="16" t="s">
@@ -4226,21 +4240,21 @@
       </c>
       <c r="H47" s="17"/>
       <c r="I47" s="17"/>
-      <c r="J47" s="23" t="s">
+      <c r="J47" s="21" t="s">
         <v>733</v>
       </c>
-      <c r="K47" s="23" t="s">
+      <c r="K47" s="21" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>56</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="20" t="s">
         <v>108</v>
       </c>
       <c r="D48" s="14" t="s">
@@ -4257,19 +4271,19 @@
       </c>
       <c r="H48" s="15"/>
       <c r="I48" s="15"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="22" t="s">
+      <c r="J48" s="20"/>
+      <c r="K48" s="20" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
         <v>56</v>
       </c>
       <c r="B49" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="23" t="s">
+      <c r="C49" s="21" t="s">
         <v>69</v>
       </c>
       <c r="D49" s="16" t="s">
@@ -4286,19 +4300,19 @@
       </c>
       <c r="H49" s="17"/>
       <c r="I49" s="17"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="23" t="s">
+      <c r="J49" s="21"/>
+      <c r="K49" s="21" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>56</v>
       </c>
       <c r="B50" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C50" s="20" t="s">
         <v>73</v>
       </c>
       <c r="D50" s="14" t="s">
@@ -4315,19 +4329,19 @@
       </c>
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22" t="s">
+      <c r="J50" s="20"/>
+      <c r="K50" s="20" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
         <v>56</v>
       </c>
       <c r="B51" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C51" s="23" t="s">
+      <c r="C51" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D51" s="16" t="s">
@@ -4344,19 +4358,19 @@
       </c>
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="23" t="s">
+      <c r="J51" s="21"/>
+      <c r="K51" s="21" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>56</v>
       </c>
       <c r="B52" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C52" s="20" t="s">
         <v>77</v>
       </c>
       <c r="D52" s="14" t="s">
@@ -4373,19 +4387,19 @@
       </c>
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="22" t="s">
+      <c r="J52" s="20"/>
+      <c r="K52" s="20" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
         <v>56</v>
       </c>
       <c r="B53" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C53" s="23" t="s">
+      <c r="C53" s="21" t="s">
         <v>79</v>
       </c>
       <c r="D53" s="16" t="s">
@@ -4402,19 +4416,19 @@
       </c>
       <c r="H53" s="17"/>
       <c r="I53" s="17"/>
-      <c r="J53" s="23"/>
-      <c r="K53" s="23" t="s">
+      <c r="J53" s="21"/>
+      <c r="K53" s="21" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>56</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C54" s="22" t="s">
+      <c r="C54" s="20" t="s">
         <v>82</v>
       </c>
       <c r="D54" s="14" t="s">
@@ -4431,19 +4445,19 @@
       </c>
       <c r="H54" s="15"/>
       <c r="I54" s="15"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="22" t="s">
+      <c r="J54" s="20"/>
+      <c r="K54" s="20" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
         <v>56</v>
       </c>
       <c r="B55" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C55" s="23" t="s">
+      <c r="C55" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D55" s="16" t="s">
@@ -4460,19 +4474,19 @@
       </c>
       <c r="H55" s="17"/>
       <c r="I55" s="17"/>
-      <c r="J55" s="23"/>
-      <c r="K55" s="23" t="s">
+      <c r="J55" s="21"/>
+      <c r="K55" s="21" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>56</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="C56" s="20" t="s">
         <v>91</v>
       </c>
       <c r="D56" s="14" t="s">
@@ -4489,19 +4503,19 @@
       </c>
       <c r="H56" s="15"/>
       <c r="I56" s="15"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22" t="s">
+      <c r="J56" s="20"/>
+      <c r="K56" s="20" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
         <v>56</v>
       </c>
       <c r="B57" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C57" s="23" t="s">
+      <c r="C57" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D57" s="16" t="s">
@@ -4518,19 +4532,19 @@
       </c>
       <c r="H57" s="17"/>
       <c r="I57" s="17"/>
-      <c r="J57" s="23"/>
-      <c r="K57" s="23" t="s">
+      <c r="J57" s="21"/>
+      <c r="K57" s="21" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
         <v>56</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C58" s="22" t="s">
+      <c r="C58" s="20" t="s">
         <v>98</v>
       </c>
       <c r="D58" s="14" t="s">
@@ -4547,19 +4561,19 @@
       </c>
       <c r="H58" s="15"/>
       <c r="I58" s="15"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="22" t="s">
+      <c r="J58" s="20"/>
+      <c r="K58" s="20" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
         <v>56</v>
       </c>
       <c r="B59" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C59" s="23" t="s">
+      <c r="C59" s="21" t="s">
         <v>84</v>
       </c>
       <c r="D59" s="16" t="s">
@@ -4576,19 +4590,19 @@
       </c>
       <c r="H59" s="17"/>
       <c r="I59" s="17"/>
-      <c r="J59" s="23"/>
-      <c r="K59" s="23" t="s">
+      <c r="J59" s="21"/>
+      <c r="K59" s="21" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
         <v>56</v>
       </c>
       <c r="B60" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C60" s="22" t="s">
+      <c r="C60" s="20" t="s">
         <v>66</v>
       </c>
       <c r="D60" s="14" t="s">
@@ -4609,21 +4623,21 @@
       <c r="I60" s="15">
         <v>42735</v>
       </c>
-      <c r="J60" s="22" t="s">
+      <c r="J60" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K60" s="22" t="s">
+      <c r="K60" s="20" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
         <v>56</v>
       </c>
       <c r="B61" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="23" t="s">
+      <c r="C61" s="21" t="s">
         <v>64</v>
       </c>
       <c r="D61" s="16" t="s">
@@ -4640,21 +4654,21 @@
       </c>
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
-      <c r="J61" s="23" t="s">
+      <c r="J61" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="K61" s="23" t="s">
+      <c r="K61" s="21" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
         <v>56</v>
       </c>
       <c r="B62" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C62" s="22" t="s">
+      <c r="C62" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D62" s="14" t="s">
@@ -4675,21 +4689,21 @@
       <c r="I62" s="15">
         <v>41236</v>
       </c>
-      <c r="J62" s="22" t="s">
+      <c r="J62" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K62" s="22" t="s">
+      <c r="K62" s="20" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
         <v>56</v>
       </c>
       <c r="B63" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C63" s="23" t="s">
+      <c r="C63" s="21" t="s">
         <v>58</v>
       </c>
       <c r="D63" s="16" t="s">
@@ -4706,21 +4720,21 @@
       </c>
       <c r="H63" s="17"/>
       <c r="I63" s="17"/>
-      <c r="J63" s="23" t="s">
+      <c r="J63" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="K63" s="23" t="s">
+      <c r="K63" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
         <v>109</v>
       </c>
       <c r="B64" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C64" s="22" t="s">
+      <c r="C64" s="20" t="s">
         <v>113</v>
       </c>
       <c r="D64" s="14" t="s">
@@ -4737,21 +4751,21 @@
       </c>
       <c r="H64" s="15"/>
       <c r="I64" s="15"/>
-      <c r="J64" s="22" t="s">
+      <c r="J64" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K64" s="22" t="s">
+      <c r="K64" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
         <v>109</v>
       </c>
       <c r="B65" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C65" s="23" t="s">
+      <c r="C65" s="21" t="s">
         <v>113</v>
       </c>
       <c r="D65" s="16" t="s">
@@ -4768,21 +4782,21 @@
       </c>
       <c r="H65" s="17"/>
       <c r="I65" s="17"/>
-      <c r="J65" s="23" t="s">
+      <c r="J65" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="K65" s="23" t="s">
+      <c r="K65" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
         <v>109</v>
       </c>
       <c r="B66" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C66" s="22" t="s">
+      <c r="C66" s="20" t="s">
         <v>113</v>
       </c>
       <c r="D66" s="14" t="s">
@@ -4799,21 +4813,21 @@
       </c>
       <c r="H66" s="15"/>
       <c r="I66" s="15"/>
-      <c r="J66" s="22" t="s">
+      <c r="J66" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K66" s="22" t="s">
+      <c r="K66" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
         <v>109</v>
       </c>
       <c r="B67" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C67" s="23" t="s">
+      <c r="C67" s="21" t="s">
         <v>111</v>
       </c>
       <c r="D67" s="16" t="s">
@@ -4830,21 +4844,21 @@
       </c>
       <c r="H67" s="17"/>
       <c r="I67" s="17"/>
-      <c r="J67" s="23" t="s">
+      <c r="J67" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="K67" s="23" t="s">
+      <c r="K67" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
         <v>121</v>
       </c>
       <c r="B68" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="C68" s="22" t="s">
+      <c r="C68" s="20" t="s">
         <v>129</v>
       </c>
       <c r="D68" s="14" t="s">
@@ -4863,21 +4877,21 @@
       <c r="I68" s="15">
         <v>44447</v>
       </c>
-      <c r="J68" s="22" t="s">
+      <c r="J68" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="K68" s="22" t="s">
+      <c r="K68" s="20" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
         <v>121</v>
       </c>
       <c r="B69" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="C69" s="23" t="s">
+      <c r="C69" s="21" t="s">
         <v>144</v>
       </c>
       <c r="D69" s="16" t="s">
@@ -4896,19 +4910,19 @@
       <c r="I69" s="17">
         <v>43830</v>
       </c>
-      <c r="J69" s="23"/>
-      <c r="K69" s="23" t="s">
+      <c r="J69" s="21"/>
+      <c r="K69" s="21" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
         <v>121</v>
       </c>
       <c r="B70" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="C70" s="22" t="s">
+      <c r="C70" s="20" t="s">
         <v>142</v>
       </c>
       <c r="D70" s="14" t="s">
@@ -4927,19 +4941,19 @@
       <c r="I70" s="15">
         <v>43585</v>
       </c>
-      <c r="J70" s="22"/>
-      <c r="K70" s="22" t="s">
+      <c r="J70" s="20"/>
+      <c r="K70" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
         <v>121</v>
       </c>
       <c r="B71" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="C71" s="23" t="s">
+      <c r="C71" s="21" t="s">
         <v>139</v>
       </c>
       <c r="D71" s="16" t="s">
@@ -4958,21 +4972,21 @@
       <c r="I71" s="17">
         <v>43465</v>
       </c>
-      <c r="J71" s="23" t="s">
+      <c r="J71" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="K71" s="23" t="s">
+      <c r="K71" s="21" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
         <v>121</v>
       </c>
       <c r="B72" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="C72" s="22" t="s">
+      <c r="C72" s="20" t="s">
         <v>139</v>
       </c>
       <c r="D72" s="14" t="s">
@@ -4991,21 +5005,21 @@
       <c r="I72" s="15">
         <v>43465</v>
       </c>
-      <c r="J72" s="22" t="s">
+      <c r="J72" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="K72" s="22" t="s">
+      <c r="K72" s="20" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
         <v>121</v>
       </c>
       <c r="B73" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="C73" s="23" t="s">
+      <c r="C73" s="21" t="s">
         <v>137</v>
       </c>
       <c r="D73" s="16" t="s">
@@ -5026,19 +5040,19 @@
       <c r="I73" s="17">
         <v>43222</v>
       </c>
-      <c r="J73" s="23"/>
-      <c r="K73" s="23" t="s">
+      <c r="J73" s="21"/>
+      <c r="K73" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="14.25" customHeight="1">
+    <row r="74" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
         <v>121</v>
       </c>
       <c r="B74" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="C74" s="22" t="s">
+      <c r="C74" s="20" t="s">
         <v>126</v>
       </c>
       <c r="D74" s="14" t="s">
@@ -5057,21 +5071,21 @@
       <c r="I74" s="15">
         <v>42369</v>
       </c>
-      <c r="J74" s="22" t="s">
+      <c r="J74" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="K74" s="22" t="s">
+      <c r="K74" s="20" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
         <v>121</v>
       </c>
       <c r="B75" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C75" s="23" t="s">
+      <c r="C75" s="21" t="s">
         <v>133</v>
       </c>
       <c r="D75" s="16" t="s">
@@ -5090,21 +5104,21 @@
       <c r="I75" s="17">
         <v>42338</v>
       </c>
-      <c r="J75" s="23" t="s">
+      <c r="J75" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="K75" s="23" t="s">
+      <c r="K75" s="21" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
         <v>121</v>
       </c>
       <c r="B76" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C76" s="22" t="s">
+      <c r="C76" s="20" t="s">
         <v>123</v>
       </c>
       <c r="D76" s="14" t="s">
@@ -5123,21 +5137,21 @@
       <c r="I76" s="15">
         <v>41243</v>
       </c>
-      <c r="J76" s="22" t="s">
+      <c r="J76" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K76" s="22" t="s">
+      <c r="K76" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
         <v>147</v>
       </c>
       <c r="B77" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="C77" s="23" t="s">
+      <c r="C77" s="21" t="s">
         <v>161</v>
       </c>
       <c r="D77" s="16" t="s">
@@ -5154,19 +5168,19 @@
       </c>
       <c r="H77" s="17"/>
       <c r="I77" s="17"/>
-      <c r="J77" s="23"/>
-      <c r="K77" s="23" t="s">
+      <c r="J77" s="21"/>
+      <c r="K77" s="21" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
         <v>147</v>
       </c>
       <c r="B78" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C78" s="22" t="s">
+      <c r="C78" s="20" t="s">
         <v>149</v>
       </c>
       <c r="D78" s="14" t="s">
@@ -5183,19 +5197,19 @@
       </c>
       <c r="H78" s="15"/>
       <c r="I78" s="15"/>
-      <c r="J78" s="22"/>
-      <c r="K78" s="22" t="s">
+      <c r="J78" s="20"/>
+      <c r="K78" s="20" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="16" t="s">
         <v>147</v>
       </c>
       <c r="B79" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="C79" s="23" t="s">
+      <c r="C79" s="21" t="s">
         <v>153</v>
       </c>
       <c r="D79" s="16" t="s">
@@ -5212,19 +5226,19 @@
       </c>
       <c r="H79" s="17"/>
       <c r="I79" s="17"/>
-      <c r="J79" s="23"/>
-      <c r="K79" s="23" t="s">
+      <c r="J79" s="21"/>
+      <c r="K79" s="21" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
         <v>147</v>
       </c>
       <c r="B80" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="C80" s="22" t="s">
+      <c r="C80" s="20" t="s">
         <v>155</v>
       </c>
       <c r="D80" s="14" t="s">
@@ -5241,19 +5255,19 @@
       </c>
       <c r="H80" s="15"/>
       <c r="I80" s="15"/>
-      <c r="J80" s="22"/>
-      <c r="K80" s="22" t="s">
+      <c r="J80" s="20"/>
+      <c r="K80" s="20" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="s">
         <v>147</v>
       </c>
       <c r="B81" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="C81" s="23" t="s">
+      <c r="C81" s="21" t="s">
         <v>159</v>
       </c>
       <c r="D81" s="16" t="s">
@@ -5270,19 +5284,19 @@
       </c>
       <c r="H81" s="17"/>
       <c r="I81" s="17"/>
-      <c r="J81" s="23"/>
-      <c r="K81" s="23" t="s">
+      <c r="J81" s="21"/>
+      <c r="K81" s="21" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
         <v>164</v>
       </c>
       <c r="B82" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="C82" s="22" t="s">
+      <c r="C82" s="20" t="s">
         <v>208</v>
       </c>
       <c r="D82" s="14" t="s">
@@ -5299,19 +5313,19 @@
       </c>
       <c r="H82" s="15"/>
       <c r="I82" s="15"/>
-      <c r="J82" s="22"/>
-      <c r="K82" s="22" t="s">
+      <c r="J82" s="20"/>
+      <c r="K82" s="20" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="16" t="s">
         <v>164</v>
       </c>
       <c r="B83" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="C83" s="23" t="s">
+      <c r="C83" s="21" t="s">
         <v>211</v>
       </c>
       <c r="D83" s="16" t="s">
@@ -5328,19 +5342,19 @@
       </c>
       <c r="H83" s="17"/>
       <c r="I83" s="17"/>
-      <c r="J83" s="23"/>
-      <c r="K83" s="23" t="s">
+      <c r="J83" s="21"/>
+      <c r="K83" s="21" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
         <v>164</v>
       </c>
       <c r="B84" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="C84" s="22" t="s">
+      <c r="C84" s="20" t="s">
         <v>215</v>
       </c>
       <c r="D84" s="14" t="s">
@@ -5357,19 +5371,19 @@
       </c>
       <c r="H84" s="15"/>
       <c r="I84" s="15"/>
-      <c r="J84" s="22"/>
-      <c r="K84" s="22" t="s">
+      <c r="J84" s="20"/>
+      <c r="K84" s="20" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="16" t="s">
         <v>164</v>
       </c>
       <c r="B85" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="C85" s="23" t="s">
+      <c r="C85" s="21" t="s">
         <v>217</v>
       </c>
       <c r="D85" s="16" t="s">
@@ -5386,19 +5400,19 @@
       </c>
       <c r="H85" s="17"/>
       <c r="I85" s="17"/>
-      <c r="J85" s="23"/>
-      <c r="K85" s="23" t="s">
+      <c r="J85" s="21"/>
+      <c r="K85" s="21" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
         <v>164</v>
       </c>
       <c r="B86" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="C86" s="22" t="s">
+      <c r="C86" s="20" t="s">
         <v>219</v>
       </c>
       <c r="D86" s="14" t="s">
@@ -5415,19 +5429,19 @@
       </c>
       <c r="H86" s="15"/>
       <c r="I86" s="15"/>
-      <c r="J86" s="22"/>
-      <c r="K86" s="22" t="s">
+      <c r="J86" s="20"/>
+      <c r="K86" s="20" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="16" t="s">
         <v>164</v>
       </c>
       <c r="B87" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="C87" s="23" t="s">
+      <c r="C87" s="21" t="s">
         <v>221</v>
       </c>
       <c r="D87" s="16" t="s">
@@ -5444,19 +5458,19 @@
       </c>
       <c r="H87" s="17"/>
       <c r="I87" s="17"/>
-      <c r="J87" s="23"/>
-      <c r="K87" s="23" t="s">
+      <c r="J87" s="21"/>
+      <c r="K87" s="21" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
         <v>164</v>
       </c>
       <c r="B88" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="C88" s="22" t="s">
+      <c r="C88" s="20" t="s">
         <v>175</v>
       </c>
       <c r="D88" s="14" t="s">
@@ -5475,21 +5489,21 @@
       <c r="I88" s="15">
         <v>43830</v>
       </c>
-      <c r="J88" s="22" t="s">
+      <c r="J88" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="K88" s="22" t="s">
+      <c r="K88" s="20" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="16" t="s">
         <v>164</v>
       </c>
       <c r="B89" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="C89" s="23" t="s">
+      <c r="C89" s="21" t="s">
         <v>177</v>
       </c>
       <c r="D89" s="16" t="s">
@@ -5508,21 +5522,21 @@
       <c r="I89" s="17">
         <v>43830</v>
       </c>
-      <c r="J89" s="23" t="s">
+      <c r="J89" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="K89" s="23" t="s">
+      <c r="K89" s="21" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
         <v>164</v>
       </c>
       <c r="B90" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="C90" s="22" t="s">
+      <c r="C90" s="20" t="s">
         <v>205</v>
       </c>
       <c r="D90" s="14" t="s">
@@ -5541,21 +5555,21 @@
       <c r="I90" s="15">
         <v>43688</v>
       </c>
-      <c r="J90" s="22" t="s">
+      <c r="J90" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="K90" s="22" t="s">
+      <c r="K90" s="20" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="16" t="s">
         <v>164</v>
       </c>
       <c r="B91" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="C91" s="23" t="s">
+      <c r="C91" s="21" t="s">
         <v>198</v>
       </c>
       <c r="D91" s="16" t="s">
@@ -5572,19 +5586,19 @@
       </c>
       <c r="H91" s="17"/>
       <c r="I91" s="17"/>
-      <c r="J91" s="23"/>
-      <c r="K91" s="23" t="s">
+      <c r="J91" s="21"/>
+      <c r="K91" s="21" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
         <v>164</v>
       </c>
       <c r="B92" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C92" s="22" t="s">
+      <c r="C92" s="20" t="s">
         <v>201</v>
       </c>
       <c r="D92" s="14" t="s">
@@ -5601,19 +5615,19 @@
       </c>
       <c r="H92" s="15"/>
       <c r="I92" s="15"/>
-      <c r="J92" s="22"/>
-      <c r="K92" s="22" t="s">
+      <c r="J92" s="20"/>
+      <c r="K92" s="20" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="16" t="s">
         <v>164</v>
       </c>
       <c r="B93" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="C93" s="23" t="s">
+      <c r="C93" s="21" t="s">
         <v>203</v>
       </c>
       <c r="D93" s="16" t="s">
@@ -5630,19 +5644,19 @@
       </c>
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
-      <c r="J93" s="23"/>
-      <c r="K93" s="23" t="s">
+      <c r="J93" s="21"/>
+      <c r="K93" s="21" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
         <v>164</v>
       </c>
       <c r="B94" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C94" s="22" t="s">
+      <c r="C94" s="20" t="s">
         <v>192</v>
       </c>
       <c r="D94" s="14" t="s">
@@ -5659,19 +5673,19 @@
       </c>
       <c r="H94" s="15"/>
       <c r="I94" s="15"/>
-      <c r="J94" s="22"/>
-      <c r="K94" s="22" t="s">
+      <c r="J94" s="20"/>
+      <c r="K94" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="s">
         <v>164</v>
       </c>
       <c r="B95" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="C95" s="23" t="s">
+      <c r="C95" s="21" t="s">
         <v>194</v>
       </c>
       <c r="D95" s="16" t="s">
@@ -5690,19 +5704,19 @@
       <c r="I95" s="17">
         <v>39263</v>
       </c>
-      <c r="J95" s="23"/>
-      <c r="K95" s="23" t="s">
+      <c r="J95" s="21"/>
+      <c r="K95" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
         <v>164</v>
       </c>
       <c r="B96" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="C96" s="22" t="s">
+      <c r="C96" s="20" t="s">
         <v>196</v>
       </c>
       <c r="D96" s="14" t="s">
@@ -5721,19 +5735,19 @@
       <c r="I96" s="15">
         <v>43100</v>
       </c>
-      <c r="J96" s="22"/>
-      <c r="K96" s="22" t="s">
+      <c r="J96" s="20"/>
+      <c r="K96" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="16" t="s">
         <v>164</v>
       </c>
       <c r="B97" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="C97" s="23" t="s">
+      <c r="C97" s="21" t="s">
         <v>189</v>
       </c>
       <c r="D97" s="16" t="s">
@@ -5752,21 +5766,21 @@
       <c r="I97" s="17">
         <v>43096</v>
       </c>
-      <c r="J97" s="23" t="s">
+      <c r="J97" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="K97" s="23" t="s">
+      <c r="K97" s="21" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
         <v>164</v>
       </c>
       <c r="B98" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="C98" s="22" t="s">
+      <c r="C98" s="20" t="s">
         <v>187</v>
       </c>
       <c r="D98" s="14" t="s">
@@ -5785,19 +5799,19 @@
       <c r="I98" s="15">
         <v>42968</v>
       </c>
-      <c r="J98" s="22"/>
-      <c r="K98" s="22" t="s">
+      <c r="J98" s="20"/>
+      <c r="K98" s="20" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="16" t="s">
         <v>164</v>
       </c>
       <c r="B99" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="C99" s="23" t="s">
+      <c r="C99" s="21" t="s">
         <v>183</v>
       </c>
       <c r="D99" s="16" t="s">
@@ -5816,19 +5830,19 @@
       <c r="I99" s="17">
         <v>42735</v>
       </c>
-      <c r="J99" s="23"/>
-      <c r="K99" s="23" t="s">
+      <c r="J99" s="21"/>
+      <c r="K99" s="21" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
         <v>164</v>
       </c>
       <c r="B100" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="C100" s="22" t="s">
+      <c r="C100" s="20" t="s">
         <v>168</v>
       </c>
       <c r="D100" s="14" t="s">
@@ -5847,19 +5861,19 @@
       <c r="I100" s="15">
         <v>42561</v>
       </c>
-      <c r="J100" s="22"/>
-      <c r="K100" s="22" t="s">
+      <c r="J100" s="20"/>
+      <c r="K100" s="20" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="16" t="s">
         <v>164</v>
       </c>
       <c r="B101" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="C101" s="23" t="s">
+      <c r="C101" s="21" t="s">
         <v>179</v>
       </c>
       <c r="D101" s="16" t="s">
@@ -5876,21 +5890,21 @@
       </c>
       <c r="H101" s="17"/>
       <c r="I101" s="17"/>
-      <c r="J101" s="23" t="s">
+      <c r="J101" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="K101" s="23" t="s">
+      <c r="K101" s="21" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
         <v>164</v>
       </c>
       <c r="B102" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C102" s="22" t="s">
+      <c r="C102" s="20" t="s">
         <v>166</v>
       </c>
       <c r="D102" s="14" t="s">
@@ -5909,21 +5923,21 @@
       <c r="I102" s="15">
         <v>41639</v>
       </c>
-      <c r="J102" s="22" t="s">
+      <c r="J102" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K102" s="22" t="s">
+      <c r="K102" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="16" t="s">
         <v>222</v>
       </c>
       <c r="B103" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="C103" s="23" t="s">
+      <c r="C103" s="21" t="s">
         <v>254</v>
       </c>
       <c r="D103" s="16" t="s">
@@ -5940,19 +5954,19 @@
       </c>
       <c r="H103" s="17"/>
       <c r="I103" s="17"/>
-      <c r="J103" s="23"/>
-      <c r="K103" s="23" t="s">
+      <c r="J103" s="21"/>
+      <c r="K103" s="21" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
         <v>222</v>
       </c>
       <c r="B104" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="C104" s="22" t="s">
+      <c r="C104" s="20" t="s">
         <v>258</v>
       </c>
       <c r="D104" s="14" t="s">
@@ -5969,19 +5983,19 @@
       </c>
       <c r="H104" s="15"/>
       <c r="I104" s="15"/>
-      <c r="J104" s="22"/>
-      <c r="K104" s="22" t="s">
+      <c r="J104" s="20"/>
+      <c r="K104" s="20" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="16" t="s">
         <v>222</v>
       </c>
       <c r="B105" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="C105" s="23" t="s">
+      <c r="C105" s="21" t="s">
         <v>250</v>
       </c>
       <c r="D105" s="16" t="s">
@@ -5998,19 +6012,19 @@
       </c>
       <c r="H105" s="17"/>
       <c r="I105" s="17"/>
-      <c r="J105" s="23"/>
-      <c r="K105" s="23" t="s">
+      <c r="J105" s="21"/>
+      <c r="K105" s="21" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
         <v>222</v>
       </c>
       <c r="B106" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="C106" s="22" t="s">
+      <c r="C106" s="20" t="s">
         <v>227</v>
       </c>
       <c r="D106" s="14" t="s">
@@ -6027,19 +6041,19 @@
       </c>
       <c r="H106" s="15"/>
       <c r="I106" s="15"/>
-      <c r="J106" s="22"/>
-      <c r="K106" s="22" t="s">
+      <c r="J106" s="20"/>
+      <c r="K106" s="20" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="16" t="s">
         <v>222</v>
       </c>
       <c r="B107" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="C107" s="23" t="s">
+      <c r="C107" s="21" t="s">
         <v>229</v>
       </c>
       <c r="D107" s="16" t="s">
@@ -6056,19 +6070,19 @@
       </c>
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
-      <c r="J107" s="23"/>
-      <c r="K107" s="23" t="s">
+      <c r="J107" s="21"/>
+      <c r="K107" s="21" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
         <v>222</v>
       </c>
       <c r="B108" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="C108" s="22" t="s">
+      <c r="C108" s="20" t="s">
         <v>231</v>
       </c>
       <c r="D108" s="14" t="s">
@@ -6085,19 +6099,19 @@
       </c>
       <c r="H108" s="15"/>
       <c r="I108" s="15"/>
-      <c r="J108" s="22"/>
-      <c r="K108" s="22" t="s">
+      <c r="J108" s="20"/>
+      <c r="K108" s="20" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="16" t="s">
         <v>222</v>
       </c>
       <c r="B109" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="C109" s="23" t="s">
+      <c r="C109" s="21" t="s">
         <v>235</v>
       </c>
       <c r="D109" s="16" t="s">
@@ -6114,19 +6128,19 @@
       </c>
       <c r="H109" s="17"/>
       <c r="I109" s="17"/>
-      <c r="J109" s="23"/>
-      <c r="K109" s="23" t="s">
+      <c r="J109" s="21"/>
+      <c r="K109" s="21" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="14" t="s">
         <v>222</v>
       </c>
       <c r="B110" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="C110" s="22" t="s">
+      <c r="C110" s="20" t="s">
         <v>239</v>
       </c>
       <c r="D110" s="14" t="s">
@@ -6143,19 +6157,19 @@
       </c>
       <c r="H110" s="15"/>
       <c r="I110" s="15"/>
-      <c r="J110" s="22"/>
-      <c r="K110" s="22" t="s">
+      <c r="J110" s="20"/>
+      <c r="K110" s="20" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="16" t="s">
         <v>222</v>
       </c>
       <c r="B111" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="C111" s="23" t="s">
+      <c r="C111" s="21" t="s">
         <v>241</v>
       </c>
       <c r="D111" s="16" t="s">
@@ -6172,19 +6186,19 @@
       </c>
       <c r="H111" s="17"/>
       <c r="I111" s="17"/>
-      <c r="J111" s="23"/>
-      <c r="K111" s="23" t="s">
+      <c r="J111" s="21"/>
+      <c r="K111" s="21" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
         <v>222</v>
       </c>
       <c r="B112" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="C112" s="22" t="s">
+      <c r="C112" s="20" t="s">
         <v>243</v>
       </c>
       <c r="D112" s="14" t="s">
@@ -6201,19 +6215,19 @@
       </c>
       <c r="H112" s="15"/>
       <c r="I112" s="15"/>
-      <c r="J112" s="22"/>
-      <c r="K112" s="22" t="s">
+      <c r="J112" s="20"/>
+      <c r="K112" s="20" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="16" t="s">
         <v>222</v>
       </c>
       <c r="B113" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="C113" s="23" t="s">
+      <c r="C113" s="21" t="s">
         <v>246</v>
       </c>
       <c r="D113" s="16" t="s">
@@ -6230,19 +6244,19 @@
       </c>
       <c r="H113" s="17"/>
       <c r="I113" s="17"/>
-      <c r="J113" s="23"/>
-      <c r="K113" s="23" t="s">
+      <c r="J113" s="21"/>
+      <c r="K113" s="21" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="14" t="s">
         <v>222</v>
       </c>
       <c r="B114" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="C114" s="22" t="s">
+      <c r="C114" s="20" t="s">
         <v>248</v>
       </c>
       <c r="D114" s="14" t="s">
@@ -6259,19 +6273,19 @@
       </c>
       <c r="H114" s="15"/>
       <c r="I114" s="15"/>
-      <c r="J114" s="22"/>
-      <c r="K114" s="22" t="s">
+      <c r="J114" s="20"/>
+      <c r="K114" s="20" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="16" t="s">
         <v>222</v>
       </c>
       <c r="B115" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="C115" s="23" t="s">
+      <c r="C115" s="21" t="s">
         <v>224</v>
       </c>
       <c r="D115" s="16" t="s">
@@ -6288,21 +6302,21 @@
       </c>
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
-      <c r="J115" s="23" t="s">
+      <c r="J115" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="K115" s="23" t="s">
+      <c r="K115" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="14" t="s">
         <v>222</v>
       </c>
       <c r="B116" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="C116" s="22" t="s">
+      <c r="C116" s="20" t="s">
         <v>224</v>
       </c>
       <c r="D116" s="14" t="s">
@@ -6319,21 +6333,21 @@
       </c>
       <c r="H116" s="15"/>
       <c r="I116" s="15"/>
-      <c r="J116" s="22" t="s">
+      <c r="J116" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="K116" s="22" t="s">
+      <c r="K116" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="16" t="s">
         <v>259</v>
       </c>
       <c r="B117" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="C117" s="23" t="s">
+      <c r="C117" s="21" t="s">
         <v>270</v>
       </c>
       <c r="D117" s="16" t="s">
@@ -6350,21 +6364,21 @@
       </c>
       <c r="H117" s="17"/>
       <c r="I117" s="17"/>
-      <c r="J117" s="23" t="s">
+      <c r="J117" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="K117" s="23" t="s">
+      <c r="K117" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="14" t="s">
         <v>259</v>
       </c>
       <c r="B118" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="C118" s="22" t="s">
+      <c r="C118" s="20" t="s">
         <v>270</v>
       </c>
       <c r="D118" s="14" t="s">
@@ -6381,21 +6395,21 @@
       </c>
       <c r="H118" s="15"/>
       <c r="I118" s="15"/>
-      <c r="J118" s="22" t="s">
+      <c r="J118" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K118" s="22" t="s">
+      <c r="K118" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="16" t="s">
         <v>259</v>
       </c>
       <c r="B119" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="C119" s="23" t="s">
+      <c r="C119" s="21" t="s">
         <v>264</v>
       </c>
       <c r="D119" s="16" t="s">
@@ -6416,21 +6430,21 @@
       <c r="I119" s="17">
         <v>42135</v>
       </c>
-      <c r="J119" s="23" t="s">
+      <c r="J119" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="K119" s="23" t="s">
+      <c r="K119" s="21" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
         <v>259</v>
       </c>
       <c r="B120" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="C120" s="22" t="s">
+      <c r="C120" s="20" t="s">
         <v>268</v>
       </c>
       <c r="D120" s="14" t="s">
@@ -6451,21 +6465,21 @@
       <c r="I120" s="15">
         <v>42135</v>
       </c>
-      <c r="J120" s="22" t="s">
+      <c r="J120" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K120" s="22" t="s">
+      <c r="K120" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="16" t="s">
         <v>259</v>
       </c>
       <c r="B121" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="C121" s="23" t="s">
+      <c r="C121" s="21" t="s">
         <v>262</v>
       </c>
       <c r="D121" s="16" t="s">
@@ -6482,21 +6496,21 @@
       </c>
       <c r="H121" s="17"/>
       <c r="I121" s="17"/>
-      <c r="J121" s="23" t="s">
+      <c r="J121" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="K121" s="23" t="s">
+      <c r="K121" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
         <v>259</v>
       </c>
       <c r="B122" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="C122" s="22" t="s">
+      <c r="C122" s="20" t="s">
         <v>262</v>
       </c>
       <c r="D122" s="14" t="s">
@@ -6513,21 +6527,21 @@
       </c>
       <c r="H122" s="15"/>
       <c r="I122" s="15"/>
-      <c r="J122" s="22" t="s">
+      <c r="J122" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K122" s="22" t="s">
+      <c r="K122" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="16" t="s">
         <v>259</v>
       </c>
       <c r="B123" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="C123" s="23" t="s">
+      <c r="C123" s="21" t="s">
         <v>262</v>
       </c>
       <c r="D123" s="16" t="s">
@@ -6544,21 +6558,21 @@
       </c>
       <c r="H123" s="17"/>
       <c r="I123" s="17"/>
-      <c r="J123" s="23" t="s">
+      <c r="J123" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="K123" s="23" t="s">
+      <c r="K123" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
         <v>259</v>
       </c>
       <c r="B124" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="C124" s="22" t="s">
+      <c r="C124" s="20" t="s">
         <v>262</v>
       </c>
       <c r="D124" s="14" t="s">
@@ -6575,21 +6589,21 @@
       </c>
       <c r="H124" s="15"/>
       <c r="I124" s="15"/>
-      <c r="J124" s="22" t="s">
+      <c r="J124" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K124" s="22" t="s">
+      <c r="K124" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="16" t="s">
         <v>259</v>
       </c>
       <c r="B125" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="C125" s="23" t="s">
+      <c r="C125" s="21" t="s">
         <v>262</v>
       </c>
       <c r="D125" s="16" t="s">
@@ -6606,21 +6620,21 @@
       </c>
       <c r="H125" s="17"/>
       <c r="I125" s="17"/>
-      <c r="J125" s="23" t="s">
+      <c r="J125" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="K125" s="23" t="s">
+      <c r="K125" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="14" t="s">
         <v>272</v>
       </c>
       <c r="B126" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="C126" s="22" t="s">
+      <c r="C126" s="20" t="s">
         <v>280</v>
       </c>
       <c r="D126" s="14" t="s">
@@ -6637,19 +6651,19 @@
       </c>
       <c r="H126" s="15"/>
       <c r="I126" s="15"/>
-      <c r="J126" s="22"/>
-      <c r="K126" s="22" t="s">
+      <c r="J126" s="20"/>
+      <c r="K126" s="20" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="16" t="s">
         <v>272</v>
       </c>
       <c r="B127" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="C127" s="23" t="s">
+      <c r="C127" s="21" t="s">
         <v>283</v>
       </c>
       <c r="D127" s="16" t="s">
@@ -6666,19 +6680,19 @@
       </c>
       <c r="H127" s="17"/>
       <c r="I127" s="17"/>
-      <c r="J127" s="23"/>
-      <c r="K127" s="23" t="s">
+      <c r="J127" s="21"/>
+      <c r="K127" s="21" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="14" t="s">
         <v>272</v>
       </c>
       <c r="B128" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="C128" s="22" t="s">
+      <c r="C128" s="20" t="s">
         <v>278</v>
       </c>
       <c r="D128" s="14" t="s">
@@ -6699,19 +6713,19 @@
       <c r="I128" s="15">
         <v>42831</v>
       </c>
-      <c r="J128" s="22"/>
-      <c r="K128" s="22" t="s">
+      <c r="J128" s="20"/>
+      <c r="K128" s="20" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="16" t="s">
         <v>272</v>
       </c>
       <c r="B129" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="C129" s="23" t="s">
+      <c r="C129" s="21" t="s">
         <v>274</v>
       </c>
       <c r="D129" s="16" t="s">
@@ -6728,21 +6742,21 @@
       </c>
       <c r="H129" s="17"/>
       <c r="I129" s="17"/>
-      <c r="J129" s="23" t="s">
+      <c r="J129" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="K129" s="23" t="s">
+      <c r="K129" s="21" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="14" t="s">
         <v>272</v>
       </c>
       <c r="B130" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="C130" s="22" t="s">
+      <c r="C130" s="20" t="s">
         <v>274</v>
       </c>
       <c r="D130" s="14" t="s">
@@ -6759,21 +6773,21 @@
       </c>
       <c r="H130" s="15"/>
       <c r="I130" s="15"/>
-      <c r="J130" s="22" t="s">
+      <c r="J130" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K130" s="22" t="s">
+      <c r="K130" s="20" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="16" t="s">
         <v>285</v>
       </c>
       <c r="B131" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="C131" s="23" t="s">
+      <c r="C131" s="21" t="s">
         <v>287</v>
       </c>
       <c r="D131" s="16" t="s">
@@ -6790,19 +6804,19 @@
       </c>
       <c r="H131" s="17"/>
       <c r="I131" s="17"/>
-      <c r="J131" s="23"/>
-      <c r="K131" s="23" t="s">
+      <c r="J131" s="21"/>
+      <c r="K131" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="14" t="s">
         <v>285</v>
       </c>
       <c r="B132" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="C132" s="22" t="s">
+      <c r="C132" s="20" t="s">
         <v>289</v>
       </c>
       <c r="D132" s="14" t="s">
@@ -6819,19 +6833,19 @@
       </c>
       <c r="H132" s="15"/>
       <c r="I132" s="15"/>
-      <c r="J132" s="22"/>
-      <c r="K132" s="22" t="s">
+      <c r="J132" s="20"/>
+      <c r="K132" s="20" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="16" t="s">
         <v>285</v>
       </c>
       <c r="B133" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="C133" s="23" t="s">
+      <c r="C133" s="21" t="s">
         <v>292</v>
       </c>
       <c r="D133" s="16" t="s">
@@ -6848,19 +6862,19 @@
       </c>
       <c r="H133" s="17"/>
       <c r="I133" s="17"/>
-      <c r="J133" s="23"/>
-      <c r="K133" s="23" t="s">
+      <c r="J133" s="21"/>
+      <c r="K133" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="14" t="s">
         <v>285</v>
       </c>
       <c r="B134" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="C134" s="22" t="s">
+      <c r="C134" s="20" t="s">
         <v>294</v>
       </c>
       <c r="D134" s="14" t="s">
@@ -6877,19 +6891,19 @@
       </c>
       <c r="H134" s="15"/>
       <c r="I134" s="15"/>
-      <c r="J134" s="22"/>
-      <c r="K134" s="22" t="s">
+      <c r="J134" s="20"/>
+      <c r="K134" s="20" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="16" t="s">
         <v>285</v>
       </c>
       <c r="B135" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="C135" s="23" t="s">
+      <c r="C135" s="21" t="s">
         <v>296</v>
       </c>
       <c r="D135" s="16" t="s">
@@ -6906,19 +6920,19 @@
       </c>
       <c r="H135" s="17"/>
       <c r="I135" s="17"/>
-      <c r="J135" s="23"/>
-      <c r="K135" s="23" t="s">
+      <c r="J135" s="21"/>
+      <c r="K135" s="21" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="14" t="s">
         <v>285</v>
       </c>
       <c r="B136" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="C136" s="22" t="s">
+      <c r="C136" s="20" t="s">
         <v>298</v>
       </c>
       <c r="D136" s="14" t="s">
@@ -6935,19 +6949,19 @@
       </c>
       <c r="H136" s="15"/>
       <c r="I136" s="15"/>
-      <c r="J136" s="22"/>
-      <c r="K136" s="22" t="s">
+      <c r="J136" s="20"/>
+      <c r="K136" s="20" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="16" t="s">
         <v>285</v>
       </c>
       <c r="B137" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="C137" s="23" t="s">
+      <c r="C137" s="21" t="s">
         <v>301</v>
       </c>
       <c r="D137" s="16" t="s">
@@ -6964,19 +6978,19 @@
       </c>
       <c r="H137" s="17"/>
       <c r="I137" s="17"/>
-      <c r="J137" s="23"/>
-      <c r="K137" s="23" t="s">
+      <c r="J137" s="21"/>
+      <c r="K137" s="21" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="14" t="s">
         <v>302</v>
       </c>
       <c r="B138" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="C138" s="22" t="s">
+      <c r="C138" s="20" t="s">
         <v>308</v>
       </c>
       <c r="D138" s="14" t="s">
@@ -6993,19 +7007,19 @@
       </c>
       <c r="H138" s="15"/>
       <c r="I138" s="15"/>
-      <c r="J138" s="22"/>
-      <c r="K138" s="22" t="s">
+      <c r="J138" s="20"/>
+      <c r="K138" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="16" t="s">
         <v>302</v>
       </c>
       <c r="B139" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="C139" s="23" t="s">
+      <c r="C139" s="21" t="s">
         <v>310</v>
       </c>
       <c r="D139" s="16" t="s">
@@ -7022,19 +7036,19 @@
       </c>
       <c r="H139" s="17"/>
       <c r="I139" s="17"/>
-      <c r="J139" s="23"/>
-      <c r="K139" s="23" t="s">
+      <c r="J139" s="21"/>
+      <c r="K139" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="14" t="s">
         <v>302</v>
       </c>
       <c r="B140" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="C140" s="22" t="s">
+      <c r="C140" s="20" t="s">
         <v>304</v>
       </c>
       <c r="D140" s="14" t="s">
@@ -7051,21 +7065,21 @@
       </c>
       <c r="H140" s="15"/>
       <c r="I140" s="15"/>
-      <c r="J140" s="22" t="s">
+      <c r="J140" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="K140" s="22" t="s">
+      <c r="K140" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="16" t="s">
         <v>302</v>
       </c>
       <c r="B141" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="C141" s="23" t="s">
+      <c r="C141" s="21" t="s">
         <v>306</v>
       </c>
       <c r="D141" s="16" t="s">
@@ -7082,21 +7096,21 @@
       </c>
       <c r="H141" s="17"/>
       <c r="I141" s="17"/>
-      <c r="J141" s="23" t="s">
+      <c r="J141" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="K141" s="23" t="s">
+      <c r="K141" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="14" t="s">
         <v>311</v>
       </c>
       <c r="B142" s="14" t="s">
         <v>755</v>
       </c>
-      <c r="C142" s="22" t="s">
+      <c r="C142" s="20" t="s">
         <v>778</v>
       </c>
       <c r="D142" s="14" t="s">
@@ -7113,19 +7127,19 @@
       </c>
       <c r="H142" s="15"/>
       <c r="I142" s="15"/>
-      <c r="J142" s="22"/>
-      <c r="K142" s="22" t="s">
+      <c r="J142" s="20"/>
+      <c r="K142" s="20" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="16" t="s">
         <v>311</v>
       </c>
       <c r="B143" s="16" t="s">
         <v>756</v>
       </c>
-      <c r="C143" s="23" t="s">
+      <c r="C143" s="21" t="s">
         <v>780</v>
       </c>
       <c r="D143" s="16" t="s">
@@ -7142,19 +7156,19 @@
       </c>
       <c r="H143" s="17"/>
       <c r="I143" s="17"/>
-      <c r="J143" s="23"/>
-      <c r="K143" s="23" t="s">
+      <c r="J143" s="21"/>
+      <c r="K143" s="21" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="14" t="s">
         <v>311</v>
       </c>
       <c r="B144" s="14" t="s">
         <v>757</v>
       </c>
-      <c r="C144" s="22" t="s">
+      <c r="C144" s="20" t="s">
         <v>781</v>
       </c>
       <c r="D144" s="14" t="s">
@@ -7171,19 +7185,19 @@
       </c>
       <c r="H144" s="15"/>
       <c r="I144" s="15"/>
-      <c r="J144" s="22"/>
-      <c r="K144" s="22" t="s">
+      <c r="J144" s="20"/>
+      <c r="K144" s="20" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="16" t="s">
         <v>311</v>
       </c>
       <c r="B145" s="16" t="s">
         <v>758</v>
       </c>
-      <c r="C145" s="23" t="s">
+      <c r="C145" s="21" t="s">
         <v>782</v>
       </c>
       <c r="D145" s="16" t="s">
@@ -7200,19 +7214,19 @@
       </c>
       <c r="H145" s="17"/>
       <c r="I145" s="17"/>
-      <c r="J145" s="23"/>
-      <c r="K145" s="23" t="s">
+      <c r="J145" s="21"/>
+      <c r="K145" s="21" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="s">
         <v>311</v>
       </c>
       <c r="B146" s="14" t="s">
         <v>759</v>
       </c>
-      <c r="C146" s="22" t="s">
+      <c r="C146" s="20" t="s">
         <v>783</v>
       </c>
       <c r="D146" s="14" t="s">
@@ -7229,19 +7243,19 @@
       </c>
       <c r="H146" s="15"/>
       <c r="I146" s="15"/>
-      <c r="J146" s="22"/>
-      <c r="K146" s="22" t="s">
+      <c r="J146" s="20"/>
+      <c r="K146" s="20" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="16" t="s">
         <v>311</v>
       </c>
       <c r="B147" s="16" t="s">
         <v>760</v>
       </c>
-      <c r="C147" s="23" t="s">
+      <c r="C147" s="21" t="s">
         <v>784</v>
       </c>
       <c r="D147" s="16" t="s">
@@ -7258,19 +7272,19 @@
       </c>
       <c r="H147" s="17"/>
       <c r="I147" s="17"/>
-      <c r="J147" s="23"/>
-      <c r="K147" s="23" t="s">
+      <c r="J147" s="21"/>
+      <c r="K147" s="21" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="s">
         <v>311</v>
       </c>
       <c r="B148" s="14" t="s">
         <v>761</v>
       </c>
-      <c r="C148" s="22" t="s">
+      <c r="C148" s="20" t="s">
         <v>785</v>
       </c>
       <c r="D148" s="14" t="s">
@@ -7287,19 +7301,19 @@
       </c>
       <c r="H148" s="15"/>
       <c r="I148" s="15"/>
-      <c r="J148" s="22"/>
-      <c r="K148" s="22" t="s">
+      <c r="J148" s="20"/>
+      <c r="K148" s="20" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="16" t="s">
         <v>311</v>
       </c>
       <c r="B149" s="16" t="s">
         <v>762</v>
       </c>
-      <c r="C149" s="23" t="s">
+      <c r="C149" s="21" t="s">
         <v>786</v>
       </c>
       <c r="D149" s="16" t="s">
@@ -7316,19 +7330,19 @@
       </c>
       <c r="H149" s="17"/>
       <c r="I149" s="17"/>
-      <c r="J149" s="23"/>
-      <c r="K149" s="23" t="s">
+      <c r="J149" s="21"/>
+      <c r="K149" s="21" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="14" t="s">
         <v>311</v>
       </c>
       <c r="B150" s="14" t="s">
         <v>814</v>
       </c>
-      <c r="C150" s="22" t="s">
+      <c r="C150" s="20" t="s">
         <v>815</v>
       </c>
       <c r="D150" s="14" t="s">
@@ -7345,19 +7359,19 @@
       </c>
       <c r="H150" s="15"/>
       <c r="I150" s="15"/>
-      <c r="J150" s="22"/>
-      <c r="K150" s="22" t="s">
+      <c r="J150" s="20"/>
+      <c r="K150" s="20" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="16" t="s">
         <v>311</v>
       </c>
       <c r="B151" s="16" t="s">
         <v>763</v>
       </c>
-      <c r="C151" s="23" t="s">
+      <c r="C151" s="21" t="s">
         <v>787</v>
       </c>
       <c r="D151" s="16" t="s">
@@ -7374,19 +7388,19 @@
       </c>
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
-      <c r="J151" s="23"/>
-      <c r="K151" s="23" t="s">
+      <c r="J151" s="21"/>
+      <c r="K151" s="21" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="14" t="s">
         <v>311</v>
       </c>
       <c r="B152" s="14" t="s">
         <v>816</v>
       </c>
-      <c r="C152" s="22" t="s">
+      <c r="C152" s="20" t="s">
         <v>817</v>
       </c>
       <c r="D152" s="14" t="s">
@@ -7403,19 +7417,19 @@
       </c>
       <c r="H152" s="15"/>
       <c r="I152" s="15"/>
-      <c r="J152" s="22"/>
-      <c r="K152" s="22" t="s">
+      <c r="J152" s="20"/>
+      <c r="K152" s="20" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="16" t="s">
         <v>311</v>
       </c>
       <c r="B153" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="C153" s="23" t="s">
+      <c r="C153" s="21" t="s">
         <v>341</v>
       </c>
       <c r="D153" s="16" t="s">
@@ -7432,19 +7446,19 @@
       </c>
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
-      <c r="J153" s="23"/>
-      <c r="K153" s="23" t="s">
+      <c r="J153" s="21"/>
+      <c r="K153" s="21" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="14" t="s">
         <v>311</v>
       </c>
       <c r="B154" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="C154" s="22" t="s">
+      <c r="C154" s="20" t="s">
         <v>343</v>
       </c>
       <c r="D154" s="14" t="s">
@@ -7461,19 +7475,19 @@
       </c>
       <c r="H154" s="15"/>
       <c r="I154" s="15"/>
-      <c r="J154" s="22"/>
-      <c r="K154" s="22" t="s">
+      <c r="J154" s="20"/>
+      <c r="K154" s="20" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="16" t="s">
         <v>311</v>
       </c>
       <c r="B155" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="C155" s="23" t="s">
+      <c r="C155" s="21" t="s">
         <v>326</v>
       </c>
       <c r="D155" s="16" t="s">
@@ -7490,19 +7504,19 @@
       </c>
       <c r="H155" s="17"/>
       <c r="I155" s="17"/>
-      <c r="J155" s="23"/>
-      <c r="K155" s="23" t="s">
+      <c r="J155" s="21"/>
+      <c r="K155" s="21" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="14" t="s">
         <v>311</v>
       </c>
       <c r="B156" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="C156" s="22" t="s">
+      <c r="C156" s="20" t="s">
         <v>330</v>
       </c>
       <c r="D156" s="14" t="s">
@@ -7519,19 +7533,19 @@
       </c>
       <c r="H156" s="15"/>
       <c r="I156" s="15"/>
-      <c r="J156" s="22"/>
-      <c r="K156" s="22" t="s">
+      <c r="J156" s="20"/>
+      <c r="K156" s="20" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="16" t="s">
         <v>311</v>
       </c>
       <c r="B157" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="C157" s="23" t="s">
+      <c r="C157" s="21" t="s">
         <v>333</v>
       </c>
       <c r="D157" s="16" t="s">
@@ -7548,19 +7562,19 @@
       </c>
       <c r="H157" s="17"/>
       <c r="I157" s="17"/>
-      <c r="J157" s="23"/>
-      <c r="K157" s="23" t="s">
+      <c r="J157" s="21"/>
+      <c r="K157" s="21" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="14" t="s">
         <v>311</v>
       </c>
       <c r="B158" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="C158" s="22" t="s">
+      <c r="C158" s="20" t="s">
         <v>335</v>
       </c>
       <c r="D158" s="14" t="s">
@@ -7577,19 +7591,19 @@
       </c>
       <c r="H158" s="15"/>
       <c r="I158" s="15"/>
-      <c r="J158" s="22"/>
-      <c r="K158" s="22" t="s">
+      <c r="J158" s="20"/>
+      <c r="K158" s="20" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="16" t="s">
         <v>311</v>
       </c>
       <c r="B159" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="C159" s="23" t="s">
+      <c r="C159" s="21" t="s">
         <v>337</v>
       </c>
       <c r="D159" s="16" t="s">
@@ -7606,19 +7620,19 @@
       </c>
       <c r="H159" s="17"/>
       <c r="I159" s="17"/>
-      <c r="J159" s="23"/>
-      <c r="K159" s="23" t="s">
+      <c r="J159" s="21"/>
+      <c r="K159" s="21" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="14" t="s">
         <v>311</v>
       </c>
       <c r="B160" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="C160" s="22" t="s">
+      <c r="C160" s="20" t="s">
         <v>339</v>
       </c>
       <c r="D160" s="14" t="s">
@@ -7635,19 +7649,19 @@
       </c>
       <c r="H160" s="15"/>
       <c r="I160" s="15"/>
-      <c r="J160" s="22"/>
-      <c r="K160" s="22" t="s">
+      <c r="J160" s="20"/>
+      <c r="K160" s="20" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="16" t="s">
         <v>311</v>
       </c>
       <c r="B161" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="C161" s="23" t="s">
+      <c r="C161" s="21" t="s">
         <v>313</v>
       </c>
       <c r="D161" s="16" t="s">
@@ -7666,19 +7680,19 @@
       <c r="I161" s="17">
         <v>42977</v>
       </c>
-      <c r="J161" s="23"/>
-      <c r="K161" s="23" t="s">
+      <c r="J161" s="21"/>
+      <c r="K161" s="21" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="14" t="s">
         <v>311</v>
       </c>
       <c r="B162" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="C162" s="22" t="s">
+      <c r="C162" s="20" t="s">
         <v>320</v>
       </c>
       <c r="D162" s="14" t="s">
@@ -7697,19 +7711,19 @@
       <c r="I162" s="15">
         <v>42870</v>
       </c>
-      <c r="J162" s="22"/>
-      <c r="K162" s="22" t="s">
+      <c r="J162" s="20"/>
+      <c r="K162" s="20" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="16" t="s">
         <v>311</v>
       </c>
       <c r="B163" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="C163" s="23" t="s">
+      <c r="C163" s="21" t="s">
         <v>322</v>
       </c>
       <c r="D163" s="16" t="s">
@@ -7728,19 +7742,19 @@
       <c r="I163" s="17">
         <v>42789</v>
       </c>
-      <c r="J163" s="23"/>
-      <c r="K163" s="23" t="s">
+      <c r="J163" s="21"/>
+      <c r="K163" s="21" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="14" t="s">
         <v>311</v>
       </c>
       <c r="B164" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="C164" s="22" t="s">
+      <c r="C164" s="20" t="s">
         <v>318</v>
       </c>
       <c r="D164" s="14" t="s">
@@ -7759,19 +7773,19 @@
       <c r="I164" s="15">
         <v>42769</v>
       </c>
-      <c r="J164" s="22"/>
-      <c r="K164" s="22" t="s">
+      <c r="J164" s="20"/>
+      <c r="K164" s="20" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="16" t="s">
         <v>311</v>
       </c>
       <c r="B165" s="16" t="s">
         <v>323</v>
       </c>
-      <c r="C165" s="23" t="s">
+      <c r="C165" s="21" t="s">
         <v>324</v>
       </c>
       <c r="D165" s="16" t="s">
@@ -7790,19 +7804,19 @@
       <c r="I165" s="17">
         <v>42651</v>
       </c>
-      <c r="J165" s="23"/>
-      <c r="K165" s="23" t="s">
+      <c r="J165" s="21"/>
+      <c r="K165" s="21" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="14" t="s">
         <v>311</v>
       </c>
       <c r="B166" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="C166" s="22" t="s">
+      <c r="C166" s="20" t="s">
         <v>316</v>
       </c>
       <c r="D166" s="14" t="s">
@@ -7821,19 +7835,19 @@
       <c r="I166" s="15">
         <v>42546</v>
       </c>
-      <c r="J166" s="22"/>
-      <c r="K166" s="22" t="s">
+      <c r="J166" s="20"/>
+      <c r="K166" s="20" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="16" t="s">
         <v>344</v>
       </c>
       <c r="B167" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="C167" s="23" t="s">
+      <c r="C167" s="21" t="s">
         <v>346</v>
       </c>
       <c r="D167" s="16" t="s">
@@ -7850,21 +7864,21 @@
       </c>
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
-      <c r="J167" s="23" t="s">
+      <c r="J167" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="K167" s="23" t="s">
+      <c r="K167" s="21" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="14" t="s">
         <v>344</v>
       </c>
       <c r="B168" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="C168" s="22" t="s">
+      <c r="C168" s="20" t="s">
         <v>346</v>
       </c>
       <c r="D168" s="14" t="s">
@@ -7881,21 +7895,21 @@
       </c>
       <c r="H168" s="15"/>
       <c r="I168" s="15"/>
-      <c r="J168" s="22" t="s">
+      <c r="J168" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K168" s="22" t="s">
+      <c r="K168" s="20" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="16" t="s">
         <v>344</v>
       </c>
       <c r="B169" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="C169" s="23" t="s">
+      <c r="C169" s="21" t="s">
         <v>346</v>
       </c>
       <c r="D169" s="16" t="s">
@@ -7912,21 +7926,21 @@
       </c>
       <c r="H169" s="17"/>
       <c r="I169" s="17"/>
-      <c r="J169" s="23" t="s">
+      <c r="J169" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="K169" s="23" t="s">
+      <c r="K169" s="21" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="14" t="s">
         <v>344</v>
       </c>
       <c r="B170" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="C170" s="22" t="s">
+      <c r="C170" s="20" t="s">
         <v>346</v>
       </c>
       <c r="D170" s="14" t="s">
@@ -7943,21 +7957,21 @@
       </c>
       <c r="H170" s="15"/>
       <c r="I170" s="15"/>
-      <c r="J170" s="22" t="s">
+      <c r="J170" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K170" s="22" t="s">
+      <c r="K170" s="20" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="16" t="s">
         <v>350</v>
       </c>
       <c r="B171" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="C171" s="23" t="s">
+      <c r="C171" s="21" t="s">
         <v>357</v>
       </c>
       <c r="D171" s="16" t="s">
@@ -7974,19 +7988,19 @@
       </c>
       <c r="H171" s="17"/>
       <c r="I171" s="17"/>
-      <c r="J171" s="23"/>
-      <c r="K171" s="23" t="s">
+      <c r="J171" s="21"/>
+      <c r="K171" s="21" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="14" t="s">
         <v>350</v>
       </c>
       <c r="B172" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="C172" s="22" t="s">
+      <c r="C172" s="20" t="s">
         <v>359</v>
       </c>
       <c r="D172" s="14" t="s">
@@ -8003,19 +8017,19 @@
       </c>
       <c r="H172" s="15"/>
       <c r="I172" s="15"/>
-      <c r="J172" s="22"/>
-      <c r="K172" s="22" t="s">
+      <c r="J172" s="20"/>
+      <c r="K172" s="20" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="16" t="s">
         <v>350</v>
       </c>
       <c r="B173" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="C173" s="23" t="s">
+      <c r="C173" s="21" t="s">
         <v>361</v>
       </c>
       <c r="D173" s="16" t="s">
@@ -8032,19 +8046,19 @@
       </c>
       <c r="H173" s="17"/>
       <c r="I173" s="17"/>
-      <c r="J173" s="23"/>
-      <c r="K173" s="23" t="s">
+      <c r="J173" s="21"/>
+      <c r="K173" s="21" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="14" t="s">
         <v>350</v>
       </c>
       <c r="B174" s="14" t="s">
         <v>363</v>
       </c>
-      <c r="C174" s="22" t="s">
+      <c r="C174" s="20" t="s">
         <v>364</v>
       </c>
       <c r="D174" s="14" t="s">
@@ -8061,19 +8075,19 @@
       </c>
       <c r="H174" s="15"/>
       <c r="I174" s="15"/>
-      <c r="J174" s="22"/>
-      <c r="K174" s="22" t="s">
+      <c r="J174" s="20"/>
+      <c r="K174" s="20" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="16" t="s">
         <v>350</v>
       </c>
       <c r="B175" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="C175" s="23" t="s">
+      <c r="C175" s="21" t="s">
         <v>352</v>
       </c>
       <c r="D175" s="16" t="s">
@@ -8090,19 +8104,19 @@
       </c>
       <c r="H175" s="17"/>
       <c r="I175" s="17"/>
-      <c r="J175" s="23"/>
-      <c r="K175" s="23" t="s">
+      <c r="J175" s="21"/>
+      <c r="K175" s="21" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="14" t="s">
         <v>350</v>
       </c>
       <c r="B176" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="C176" s="22" t="s">
+      <c r="C176" s="20" t="s">
         <v>355</v>
       </c>
       <c r="D176" s="14" t="s">
@@ -8119,19 +8133,19 @@
       </c>
       <c r="H176" s="15"/>
       <c r="I176" s="15"/>
-      <c r="J176" s="22"/>
-      <c r="K176" s="22" t="s">
+      <c r="J176" s="20"/>
+      <c r="K176" s="20" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="16" t="s">
         <v>365</v>
       </c>
       <c r="B177" s="16" t="s">
         <v>818</v>
       </c>
-      <c r="C177" s="23" t="s">
+      <c r="C177" s="21" t="s">
         <v>819</v>
       </c>
       <c r="D177" s="16" t="s">
@@ -8148,19 +8162,19 @@
       </c>
       <c r="H177" s="17"/>
       <c r="I177" s="17"/>
-      <c r="J177" s="23"/>
-      <c r="K177" s="23" t="s">
+      <c r="J177" s="21"/>
+      <c r="K177" s="21" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="14" t="s">
         <v>365</v>
       </c>
       <c r="B178" s="14" t="s">
         <v>822</v>
       </c>
-      <c r="C178" s="22" t="s">
+      <c r="C178" s="20" t="s">
         <v>823</v>
       </c>
       <c r="D178" s="14" t="s">
@@ -8179,19 +8193,19 @@
       <c r="I178" s="15">
         <v>41486</v>
       </c>
-      <c r="J178" s="22"/>
-      <c r="K178" s="22" t="s">
+      <c r="J178" s="20"/>
+      <c r="K178" s="20" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="16" t="s">
         <v>365</v>
       </c>
       <c r="B179" s="16" t="s">
         <v>825</v>
       </c>
-      <c r="C179" s="23" t="s">
+      <c r="C179" s="21" t="s">
         <v>826</v>
       </c>
       <c r="D179" s="16" t="s">
@@ -8210,19 +8224,19 @@
       <c r="I179" s="17">
         <v>41341</v>
       </c>
-      <c r="J179" s="23"/>
-      <c r="K179" s="23" t="s">
+      <c r="J179" s="21"/>
+      <c r="K179" s="21" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="14" t="s">
         <v>365</v>
       </c>
       <c r="B180" s="14" t="s">
         <v>764</v>
       </c>
-      <c r="C180" s="22" t="s">
+      <c r="C180" s="20" t="s">
         <v>789</v>
       </c>
       <c r="D180" s="14" t="s">
@@ -8241,19 +8255,19 @@
       <c r="I180" s="15">
         <v>41639</v>
       </c>
-      <c r="J180" s="22"/>
-      <c r="K180" s="22" t="s">
+      <c r="J180" s="20"/>
+      <c r="K180" s="20" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="16" t="s">
         <v>365</v>
       </c>
       <c r="B181" s="16" t="s">
         <v>765</v>
       </c>
-      <c r="C181" s="23" t="s">
+      <c r="C181" s="21" t="s">
         <v>790</v>
       </c>
       <c r="D181" s="16" t="s">
@@ -8270,19 +8284,19 @@
       </c>
       <c r="H181" s="17"/>
       <c r="I181" s="17"/>
-      <c r="J181" s="23"/>
-      <c r="K181" s="23" t="s">
+      <c r="J181" s="21"/>
+      <c r="K181" s="21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="14" t="s">
         <v>365</v>
       </c>
       <c r="B182" s="14" t="s">
         <v>766</v>
       </c>
-      <c r="C182" s="22" t="s">
+      <c r="C182" s="20" t="s">
         <v>791</v>
       </c>
       <c r="D182" s="14" t="s">
@@ -8299,19 +8313,19 @@
       </c>
       <c r="H182" s="15"/>
       <c r="I182" s="15"/>
-      <c r="J182" s="22"/>
-      <c r="K182" s="22" t="s">
+      <c r="J182" s="20"/>
+      <c r="K182" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="16" t="s">
         <v>365</v>
       </c>
       <c r="B183" s="16" t="s">
         <v>408</v>
       </c>
-      <c r="C183" s="23" t="s">
+      <c r="C183" s="21" t="s">
         <v>409</v>
       </c>
       <c r="D183" s="16" t="s">
@@ -8328,19 +8342,19 @@
       </c>
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
-      <c r="J183" s="23"/>
-      <c r="K183" s="23" t="s">
+      <c r="J183" s="21"/>
+      <c r="K183" s="21" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="14" t="s">
         <v>365</v>
       </c>
       <c r="B184" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="C184" s="22" t="s">
+      <c r="C184" s="20" t="s">
         <v>404</v>
       </c>
       <c r="D184" s="14" t="s">
@@ -8357,19 +8371,19 @@
       </c>
       <c r="H184" s="15"/>
       <c r="I184" s="15"/>
-      <c r="J184" s="22"/>
-      <c r="K184" s="22" t="s">
+      <c r="J184" s="20"/>
+      <c r="K184" s="20" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="16" t="s">
         <v>365</v>
       </c>
       <c r="B185" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="C185" s="23" t="s">
+      <c r="C185" s="21" t="s">
         <v>406</v>
       </c>
       <c r="D185" s="16" t="s">
@@ -8386,19 +8400,19 @@
       </c>
       <c r="H185" s="17"/>
       <c r="I185" s="17"/>
-      <c r="J185" s="23"/>
-      <c r="K185" s="23" t="s">
+      <c r="J185" s="21"/>
+      <c r="K185" s="21" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="14" t="s">
         <v>365</v>
       </c>
       <c r="B186" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="C186" s="22" t="s">
+      <c r="C186" s="20" t="s">
         <v>402</v>
       </c>
       <c r="D186" s="14" t="s">
@@ -8415,19 +8429,19 @@
       </c>
       <c r="H186" s="15"/>
       <c r="I186" s="15"/>
-      <c r="J186" s="22"/>
-      <c r="K186" s="22" t="s">
+      <c r="J186" s="20"/>
+      <c r="K186" s="20" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="16" t="s">
         <v>365</v>
       </c>
       <c r="B187" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="C187" s="23" t="s">
+      <c r="C187" s="21" t="s">
         <v>369</v>
       </c>
       <c r="D187" s="16" t="s">
@@ -8446,19 +8460,19 @@
       <c r="I187" s="17">
         <v>43525</v>
       </c>
-      <c r="J187" s="23"/>
-      <c r="K187" s="23" t="s">
+      <c r="J187" s="21"/>
+      <c r="K187" s="21" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="14" t="s">
         <v>365</v>
       </c>
       <c r="B188" s="14" t="s">
         <v>399</v>
       </c>
-      <c r="C188" s="22" t="s">
+      <c r="C188" s="20" t="s">
         <v>369</v>
       </c>
       <c r="D188" s="14" t="s">
@@ -8477,19 +8491,19 @@
       <c r="I188" s="15">
         <v>43525</v>
       </c>
-      <c r="J188" s="22"/>
-      <c r="K188" s="22" t="s">
+      <c r="J188" s="20"/>
+      <c r="K188" s="20" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="16" t="s">
         <v>365</v>
       </c>
       <c r="B189" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="C189" s="23" t="s">
+      <c r="C189" s="21" t="s">
         <v>369</v>
       </c>
       <c r="D189" s="16" t="s">
@@ -8508,19 +8522,19 @@
       <c r="I189" s="17">
         <v>43525</v>
       </c>
-      <c r="J189" s="23"/>
-      <c r="K189" s="23" t="s">
+      <c r="J189" s="21"/>
+      <c r="K189" s="21" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="14" t="s">
         <v>365</v>
       </c>
       <c r="B190" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="C190" s="22" t="s">
+      <c r="C190" s="20" t="s">
         <v>390</v>
       </c>
       <c r="D190" s="14" t="s">
@@ -8537,19 +8551,19 @@
       </c>
       <c r="H190" s="15"/>
       <c r="I190" s="15"/>
-      <c r="J190" s="22"/>
-      <c r="K190" s="22" t="s">
+      <c r="J190" s="20"/>
+      <c r="K190" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="16" t="s">
         <v>365</v>
       </c>
       <c r="B191" s="16" t="s">
         <v>391</v>
       </c>
-      <c r="C191" s="23" t="s">
+      <c r="C191" s="21" t="s">
         <v>392</v>
       </c>
       <c r="D191" s="16" t="s">
@@ -8566,19 +8580,19 @@
       </c>
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
-      <c r="J191" s="23"/>
-      <c r="K191" s="23" t="s">
+      <c r="J191" s="21"/>
+      <c r="K191" s="21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="14" t="s">
         <v>365</v>
       </c>
       <c r="B192" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="C192" s="22" t="s">
+      <c r="C192" s="20" t="s">
         <v>394</v>
       </c>
       <c r="D192" s="14" t="s">
@@ -8595,19 +8609,19 @@
       </c>
       <c r="H192" s="15"/>
       <c r="I192" s="15"/>
-      <c r="J192" s="22"/>
-      <c r="K192" s="22" t="s">
+      <c r="J192" s="20"/>
+      <c r="K192" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="16" t="s">
         <v>365</v>
       </c>
       <c r="B193" s="16" t="s">
         <v>395</v>
       </c>
-      <c r="C193" s="23" t="s">
+      <c r="C193" s="21" t="s">
         <v>396</v>
       </c>
       <c r="D193" s="16" t="s">
@@ -8624,19 +8638,19 @@
       </c>
       <c r="H193" s="17"/>
       <c r="I193" s="17"/>
-      <c r="J193" s="23"/>
-      <c r="K193" s="23" t="s">
+      <c r="J193" s="21"/>
+      <c r="K193" s="21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="14" t="s">
         <v>365</v>
       </c>
       <c r="B194" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="C194" s="22" t="s">
+      <c r="C194" s="20" t="s">
         <v>398</v>
       </c>
       <c r="D194" s="14" t="s">
@@ -8653,19 +8667,19 @@
       </c>
       <c r="H194" s="15"/>
       <c r="I194" s="15"/>
-      <c r="J194" s="22"/>
-      <c r="K194" s="22" t="s">
+      <c r="J194" s="20"/>
+      <c r="K194" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="16" t="s">
         <v>365</v>
       </c>
       <c r="B195" s="16" t="s">
         <v>386</v>
       </c>
-      <c r="C195" s="23" t="s">
+      <c r="C195" s="21" t="s">
         <v>387</v>
       </c>
       <c r="D195" s="16" t="s">
@@ -8684,19 +8698,19 @@
       <c r="I195" s="17">
         <v>43347</v>
       </c>
-      <c r="J195" s="23"/>
-      <c r="K195" s="23" t="s">
+      <c r="J195" s="21"/>
+      <c r="K195" s="21" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="14" t="s">
         <v>365</v>
       </c>
       <c r="B196" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="C196" s="22" t="s">
+      <c r="C196" s="20" t="s">
         <v>387</v>
       </c>
       <c r="D196" s="14" t="s">
@@ -8715,19 +8729,19 @@
       <c r="I196" s="15">
         <v>43347</v>
       </c>
-      <c r="J196" s="22"/>
-      <c r="K196" s="22" t="s">
+      <c r="J196" s="20"/>
+      <c r="K196" s="20" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="16" t="s">
         <v>365</v>
       </c>
       <c r="B197" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="C197" s="23" t="s">
+      <c r="C197" s="21" t="s">
         <v>375</v>
       </c>
       <c r="D197" s="16" t="s">
@@ -8744,19 +8758,19 @@
       </c>
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
-      <c r="J197" s="23"/>
-      <c r="K197" s="23" t="s">
+      <c r="J197" s="21"/>
+      <c r="K197" s="21" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="14" t="s">
         <v>365</v>
       </c>
       <c r="B198" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="C198" s="22" t="s">
+      <c r="C198" s="20" t="s">
         <v>379</v>
       </c>
       <c r="D198" s="14" t="s">
@@ -8775,19 +8789,19 @@
       <c r="I198" s="15">
         <v>39325</v>
       </c>
-      <c r="J198" s="22"/>
-      <c r="K198" s="22" t="s">
+      <c r="J198" s="20"/>
+      <c r="K198" s="20" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="16" t="s">
         <v>365</v>
       </c>
       <c r="B199" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="C199" s="23" t="s">
+      <c r="C199" s="21" t="s">
         <v>381</v>
       </c>
       <c r="D199" s="16" t="s">
@@ -8804,19 +8818,19 @@
       </c>
       <c r="H199" s="17"/>
       <c r="I199" s="17"/>
-      <c r="J199" s="23"/>
-      <c r="K199" s="23" t="s">
+      <c r="J199" s="21"/>
+      <c r="K199" s="21" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="14" t="s">
         <v>365</v>
       </c>
       <c r="B200" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="C200" s="22" t="s">
+      <c r="C200" s="20" t="s">
         <v>383</v>
       </c>
       <c r="D200" s="14" t="s">
@@ -8833,19 +8847,19 @@
       </c>
       <c r="H200" s="15"/>
       <c r="I200" s="15"/>
-      <c r="J200" s="22"/>
-      <c r="K200" s="22" t="s">
+      <c r="J200" s="20"/>
+      <c r="K200" s="20" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="16" t="s">
         <v>365</v>
       </c>
       <c r="B201" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="C201" s="23" t="s">
+      <c r="C201" s="21" t="s">
         <v>385</v>
       </c>
       <c r="D201" s="16" t="s">
@@ -8862,19 +8876,19 @@
       </c>
       <c r="H201" s="17"/>
       <c r="I201" s="17"/>
-      <c r="J201" s="23"/>
-      <c r="K201" s="23" t="s">
+      <c r="J201" s="21"/>
+      <c r="K201" s="21" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="14" t="s">
         <v>365</v>
       </c>
       <c r="B202" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="C202" s="22" t="s">
+      <c r="C202" s="20" t="s">
         <v>371</v>
       </c>
       <c r="D202" s="14" t="s">
@@ -8891,19 +8905,19 @@
       </c>
       <c r="H202" s="15"/>
       <c r="I202" s="15"/>
-      <c r="J202" s="22"/>
-      <c r="K202" s="22" t="s">
+      <c r="J202" s="20"/>
+      <c r="K202" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="16" t="s">
         <v>365</v>
       </c>
       <c r="B203" s="16" t="s">
         <v>372</v>
       </c>
-      <c r="C203" s="23" t="s">
+      <c r="C203" s="21" t="s">
         <v>373</v>
       </c>
       <c r="D203" s="16" t="s">
@@ -8920,19 +8934,19 @@
       </c>
       <c r="H203" s="17"/>
       <c r="I203" s="17"/>
-      <c r="J203" s="23"/>
-      <c r="K203" s="23" t="s">
+      <c r="J203" s="21"/>
+      <c r="K203" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="14" t="s">
         <v>365</v>
       </c>
       <c r="B204" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="C204" s="22" t="s">
+      <c r="C204" s="20" t="s">
         <v>367</v>
       </c>
       <c r="D204" s="14" t="s">
@@ -8951,21 +8965,21 @@
       <c r="I204" s="15">
         <v>41075</v>
       </c>
-      <c r="J204" s="22" t="s">
+      <c r="J204" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K204" s="22" t="s">
+      <c r="K204" s="20" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="16" t="s">
         <v>411</v>
       </c>
       <c r="B205" s="16" t="s">
         <v>827</v>
       </c>
-      <c r="C205" s="23" t="s">
+      <c r="C205" s="21" t="s">
         <v>828</v>
       </c>
       <c r="D205" s="16" t="s">
@@ -8982,19 +8996,19 @@
       </c>
       <c r="H205" s="17"/>
       <c r="I205" s="17"/>
-      <c r="J205" s="23"/>
-      <c r="K205" s="23" t="s">
+      <c r="J205" s="21"/>
+      <c r="K205" s="21" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="14" t="s">
         <v>411</v>
       </c>
       <c r="B206" s="14" t="s">
         <v>830</v>
       </c>
-      <c r="C206" s="22" t="s">
+      <c r="C206" s="20" t="s">
         <v>831</v>
       </c>
       <c r="D206" s="14" t="s">
@@ -9011,19 +9025,19 @@
       </c>
       <c r="H206" s="15"/>
       <c r="I206" s="15"/>
-      <c r="J206" s="22"/>
-      <c r="K206" s="22" t="s">
+      <c r="J206" s="20"/>
+      <c r="K206" s="20" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="16" t="s">
         <v>411</v>
       </c>
       <c r="B207" s="16" t="s">
         <v>832</v>
       </c>
-      <c r="C207" s="23" t="s">
+      <c r="C207" s="21" t="s">
         <v>833</v>
       </c>
       <c r="D207" s="16" t="s">
@@ -9040,19 +9054,19 @@
       </c>
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
-      <c r="J207" s="23"/>
-      <c r="K207" s="23" t="s">
+      <c r="J207" s="21"/>
+      <c r="K207" s="21" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="14" t="s">
         <v>411</v>
       </c>
       <c r="B208" s="14" t="s">
         <v>834</v>
       </c>
-      <c r="C208" s="22" t="s">
+      <c r="C208" s="20" t="s">
         <v>835</v>
       </c>
       <c r="D208" s="14" t="s">
@@ -9071,19 +9085,19 @@
       <c r="I208" s="15">
         <v>38960</v>
       </c>
-      <c r="J208" s="22"/>
-      <c r="K208" s="22" t="s">
+      <c r="J208" s="20"/>
+      <c r="K208" s="20" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="16" t="s">
         <v>411</v>
       </c>
       <c r="B209" s="16" t="s">
         <v>767</v>
       </c>
-      <c r="C209" s="23" t="s">
+      <c r="C209" s="21" t="s">
         <v>792</v>
       </c>
       <c r="D209" s="16" t="s">
@@ -9100,19 +9114,19 @@
       </c>
       <c r="H209" s="17"/>
       <c r="I209" s="17"/>
-      <c r="J209" s="23"/>
-      <c r="K209" s="23" t="s">
+      <c r="J209" s="21"/>
+      <c r="K209" s="21" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="14" t="s">
         <v>411</v>
       </c>
       <c r="B210" s="14" t="s">
         <v>768</v>
       </c>
-      <c r="C210" s="22" t="s">
+      <c r="C210" s="20" t="s">
         <v>794</v>
       </c>
       <c r="D210" s="14" t="s">
@@ -9129,19 +9143,19 @@
       </c>
       <c r="H210" s="15"/>
       <c r="I210" s="15"/>
-      <c r="J210" s="22"/>
-      <c r="K210" s="22" t="s">
+      <c r="J210" s="20"/>
+      <c r="K210" s="20" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="16" t="s">
         <v>411</v>
       </c>
       <c r="B211" s="16" t="s">
         <v>769</v>
       </c>
-      <c r="C211" s="23" t="s">
+      <c r="C211" s="21" t="s">
         <v>795</v>
       </c>
       <c r="D211" s="16" t="s">
@@ -9158,19 +9172,19 @@
       </c>
       <c r="H211" s="17"/>
       <c r="I211" s="17"/>
-      <c r="J211" s="23"/>
-      <c r="K211" s="23" t="s">
+      <c r="J211" s="21"/>
+      <c r="K211" s="21" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="14" t="s">
         <v>411</v>
       </c>
       <c r="B212" s="14" t="s">
         <v>770</v>
       </c>
-      <c r="C212" s="22" t="s">
+      <c r="C212" s="20" t="s">
         <v>797</v>
       </c>
       <c r="D212" s="14" t="s">
@@ -9189,19 +9203,19 @@
       <c r="I212" s="15">
         <v>40633</v>
       </c>
-      <c r="J212" s="22"/>
-      <c r="K212" s="22" t="s">
+      <c r="J212" s="20"/>
+      <c r="K212" s="20" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="16" t="s">
         <v>411</v>
       </c>
       <c r="B213" s="16" t="s">
         <v>771</v>
       </c>
-      <c r="C213" s="23" t="s">
+      <c r="C213" s="21" t="s">
         <v>799</v>
       </c>
       <c r="D213" s="16" t="s">
@@ -9218,19 +9232,19 @@
       </c>
       <c r="H213" s="17"/>
       <c r="I213" s="17"/>
-      <c r="J213" s="23"/>
-      <c r="K213" s="23" t="s">
+      <c r="J213" s="21"/>
+      <c r="K213" s="21" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="14" t="s">
         <v>411</v>
       </c>
       <c r="B214" s="14" t="s">
         <v>772</v>
       </c>
-      <c r="C214" s="22" t="s">
+      <c r="C214" s="20" t="s">
         <v>800</v>
       </c>
       <c r="D214" s="14" t="s">
@@ -9247,19 +9261,19 @@
       </c>
       <c r="H214" s="15"/>
       <c r="I214" s="15"/>
-      <c r="J214" s="22"/>
-      <c r="K214" s="22" t="s">
+      <c r="J214" s="20"/>
+      <c r="K214" s="20" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="215" spans="1:11">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="16" t="s">
         <v>411</v>
       </c>
       <c r="B215" s="16" t="s">
         <v>773</v>
       </c>
-      <c r="C215" s="23" t="s">
+      <c r="C215" s="21" t="s">
         <v>801</v>
       </c>
       <c r="D215" s="16" t="s">
@@ -9276,19 +9290,19 @@
       </c>
       <c r="H215" s="17"/>
       <c r="I215" s="17"/>
-      <c r="J215" s="23"/>
-      <c r="K215" s="23" t="s">
+      <c r="J215" s="21"/>
+      <c r="K215" s="21" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="14" t="s">
         <v>411</v>
       </c>
       <c r="B216" s="14" t="s">
         <v>774</v>
       </c>
-      <c r="C216" s="22" t="s">
+      <c r="C216" s="20" t="s">
         <v>802</v>
       </c>
       <c r="D216" s="14" t="s">
@@ -9305,19 +9319,19 @@
       </c>
       <c r="H216" s="15"/>
       <c r="I216" s="15"/>
-      <c r="J216" s="22"/>
-      <c r="K216" s="22" t="s">
+      <c r="J216" s="20"/>
+      <c r="K216" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="217" spans="1:11">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="16" t="s">
         <v>411</v>
       </c>
       <c r="B217" s="16" t="s">
         <v>775</v>
       </c>
-      <c r="C217" s="23" t="s">
+      <c r="C217" s="21" t="s">
         <v>803</v>
       </c>
       <c r="D217" s="16" t="s">
@@ -9334,19 +9348,19 @@
       </c>
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
-      <c r="J217" s="23"/>
-      <c r="K217" s="23" t="s">
+      <c r="J217" s="21"/>
+      <c r="K217" s="21" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="218" spans="1:11">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="14" t="s">
         <v>411</v>
       </c>
       <c r="B218" s="14" t="s">
         <v>527</v>
       </c>
-      <c r="C218" s="22" t="s">
+      <c r="C218" s="20" t="s">
         <v>528</v>
       </c>
       <c r="D218" s="14" t="s">
@@ -9363,19 +9377,19 @@
       </c>
       <c r="H218" s="15"/>
       <c r="I218" s="15"/>
-      <c r="J218" s="22"/>
-      <c r="K218" s="22" t="s">
+      <c r="J218" s="20"/>
+      <c r="K218" s="20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="16" t="s">
         <v>411</v>
       </c>
       <c r="B219" s="16" t="s">
         <v>529</v>
       </c>
-      <c r="C219" s="23" t="s">
+      <c r="C219" s="21" t="s">
         <v>530</v>
       </c>
       <c r="D219" s="16" t="s">
@@ -9392,19 +9406,19 @@
       </c>
       <c r="H219" s="17"/>
       <c r="I219" s="17"/>
-      <c r="J219" s="23"/>
-      <c r="K219" s="23" t="s">
+      <c r="J219" s="21"/>
+      <c r="K219" s="21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="14" t="s">
         <v>411</v>
       </c>
       <c r="B220" s="14" t="s">
         <v>531</v>
       </c>
-      <c r="C220" s="22" t="s">
+      <c r="C220" s="20" t="s">
         <v>532</v>
       </c>
       <c r="D220" s="14" t="s">
@@ -9421,19 +9435,19 @@
       </c>
       <c r="H220" s="15"/>
       <c r="I220" s="15"/>
-      <c r="J220" s="22"/>
-      <c r="K220" s="22" t="s">
+      <c r="J220" s="20"/>
+      <c r="K220" s="20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="16" t="s">
         <v>411</v>
       </c>
       <c r="B221" s="16" t="s">
         <v>533</v>
       </c>
-      <c r="C221" s="23" t="s">
+      <c r="C221" s="21" t="s">
         <v>534</v>
       </c>
       <c r="D221" s="16" t="s">
@@ -9450,19 +9464,19 @@
       </c>
       <c r="H221" s="17"/>
       <c r="I221" s="17"/>
-      <c r="J221" s="23"/>
-      <c r="K221" s="23" t="s">
+      <c r="J221" s="21"/>
+      <c r="K221" s="21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="222" spans="1:11">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="14" t="s">
         <v>411</v>
       </c>
       <c r="B222" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="C222" s="22" t="s">
+      <c r="C222" s="20" t="s">
         <v>536</v>
       </c>
       <c r="D222" s="14" t="s">
@@ -9479,19 +9493,19 @@
       </c>
       <c r="H222" s="15"/>
       <c r="I222" s="15"/>
-      <c r="J222" s="22"/>
-      <c r="K222" s="22" t="s">
+      <c r="J222" s="20"/>
+      <c r="K222" s="20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="223" spans="1:11">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="16" t="s">
         <v>411</v>
       </c>
       <c r="B223" s="16" t="s">
         <v>473</v>
       </c>
-      <c r="C223" s="23" t="s">
+      <c r="C223" s="21" t="s">
         <v>474</v>
       </c>
       <c r="D223" s="16" t="s">
@@ -9508,19 +9522,19 @@
       </c>
       <c r="H223" s="17"/>
       <c r="I223" s="17"/>
-      <c r="J223" s="23"/>
-      <c r="K223" s="23" t="s">
+      <c r="J223" s="21"/>
+      <c r="K223" s="21" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="224" spans="1:11">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="14" t="s">
         <v>411</v>
       </c>
       <c r="B224" s="14" t="s">
         <v>475</v>
       </c>
-      <c r="C224" s="22" t="s">
+      <c r="C224" s="20" t="s">
         <v>476</v>
       </c>
       <c r="D224" s="14" t="s">
@@ -9537,19 +9551,19 @@
       </c>
       <c r="H224" s="15"/>
       <c r="I224" s="15"/>
-      <c r="J224" s="22"/>
-      <c r="K224" s="22" t="s">
+      <c r="J224" s="20"/>
+      <c r="K224" s="20" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="225" spans="1:11">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="16" t="s">
         <v>411</v>
       </c>
       <c r="B225" s="16" t="s">
         <v>478</v>
       </c>
-      <c r="C225" s="23" t="s">
+      <c r="C225" s="21" t="s">
         <v>479</v>
       </c>
       <c r="D225" s="16" t="s">
@@ -9566,19 +9580,19 @@
       </c>
       <c r="H225" s="17"/>
       <c r="I225" s="17"/>
-      <c r="J225" s="23"/>
-      <c r="K225" s="23" t="s">
+      <c r="J225" s="21"/>
+      <c r="K225" s="21" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="226" spans="1:11">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="14" t="s">
         <v>411</v>
       </c>
       <c r="B226" s="14" t="s">
         <v>480</v>
       </c>
-      <c r="C226" s="22" t="s">
+      <c r="C226" s="20" t="s">
         <v>481</v>
       </c>
       <c r="D226" s="14" t="s">
@@ -9595,19 +9609,19 @@
       </c>
       <c r="H226" s="15"/>
       <c r="I226" s="15"/>
-      <c r="J226" s="22"/>
-      <c r="K226" s="22" t="s">
+      <c r="J226" s="20"/>
+      <c r="K226" s="20" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="227" spans="1:11">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="16" t="s">
         <v>411</v>
       </c>
       <c r="B227" s="16" t="s">
         <v>482</v>
       </c>
-      <c r="C227" s="23" t="s">
+      <c r="C227" s="21" t="s">
         <v>483</v>
       </c>
       <c r="D227" s="16" t="s">
@@ -9624,19 +9638,19 @@
       </c>
       <c r="H227" s="17"/>
       <c r="I227" s="17"/>
-      <c r="J227" s="23"/>
-      <c r="K227" s="23" t="s">
+      <c r="J227" s="21"/>
+      <c r="K227" s="21" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="228" spans="1:11">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="14" t="s">
         <v>411</v>
       </c>
       <c r="B228" s="14" t="s">
         <v>485</v>
       </c>
-      <c r="C228" s="22" t="s">
+      <c r="C228" s="20" t="s">
         <v>486</v>
       </c>
       <c r="D228" s="14" t="s">
@@ -9653,19 +9667,19 @@
       </c>
       <c r="H228" s="15"/>
       <c r="I228" s="15"/>
-      <c r="J228" s="22"/>
-      <c r="K228" s="22" t="s">
+      <c r="J228" s="20"/>
+      <c r="K228" s="20" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="229" spans="1:11">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="16" t="s">
         <v>411</v>
       </c>
       <c r="B229" s="16" t="s">
         <v>488</v>
       </c>
-      <c r="C229" s="23" t="s">
+      <c r="C229" s="21" t="s">
         <v>489</v>
       </c>
       <c r="D229" s="16" t="s">
@@ -9682,19 +9696,19 @@
       </c>
       <c r="H229" s="17"/>
       <c r="I229" s="17"/>
-      <c r="J229" s="23"/>
-      <c r="K229" s="23" t="s">
+      <c r="J229" s="21"/>
+      <c r="K229" s="21" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="230" spans="1:11">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="14" t="s">
         <v>411</v>
       </c>
       <c r="B230" s="14" t="s">
         <v>490</v>
       </c>
-      <c r="C230" s="22" t="s">
+      <c r="C230" s="20" t="s">
         <v>491</v>
       </c>
       <c r="D230" s="14" t="s">
@@ -9711,19 +9725,19 @@
       </c>
       <c r="H230" s="15"/>
       <c r="I230" s="15"/>
-      <c r="J230" s="22"/>
-      <c r="K230" s="22" t="s">
+      <c r="J230" s="20"/>
+      <c r="K230" s="20" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="16" t="s">
         <v>411</v>
       </c>
       <c r="B231" s="16" t="s">
         <v>492</v>
       </c>
-      <c r="C231" s="23" t="s">
+      <c r="C231" s="21" t="s">
         <v>493</v>
       </c>
       <c r="D231" s="16" t="s">
@@ -9740,19 +9754,19 @@
       </c>
       <c r="H231" s="17"/>
       <c r="I231" s="17"/>
-      <c r="J231" s="23"/>
-      <c r="K231" s="23" t="s">
+      <c r="J231" s="21"/>
+      <c r="K231" s="21" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="232" spans="1:11">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="14" t="s">
         <v>411</v>
       </c>
       <c r="B232" s="14" t="s">
         <v>494</v>
       </c>
-      <c r="C232" s="22" t="s">
+      <c r="C232" s="20" t="s">
         <v>495</v>
       </c>
       <c r="D232" s="14" t="s">
@@ -9769,19 +9783,19 @@
       </c>
       <c r="H232" s="15"/>
       <c r="I232" s="15"/>
-      <c r="J232" s="22"/>
-      <c r="K232" s="22" t="s">
+      <c r="J232" s="20"/>
+      <c r="K232" s="20" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="233" spans="1:11">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="16" t="s">
         <v>411</v>
       </c>
       <c r="B233" s="16" t="s">
         <v>496</v>
       </c>
-      <c r="C233" s="23" t="s">
+      <c r="C233" s="21" t="s">
         <v>497</v>
       </c>
       <c r="D233" s="16" t="s">
@@ -9798,19 +9812,19 @@
       </c>
       <c r="H233" s="17"/>
       <c r="I233" s="17"/>
-      <c r="J233" s="23"/>
-      <c r="K233" s="23" t="s">
+      <c r="J233" s="21"/>
+      <c r="K233" s="21" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="234" spans="1:11">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="14" t="s">
         <v>411</v>
       </c>
       <c r="B234" s="14" t="s">
         <v>498</v>
       </c>
-      <c r="C234" s="22" t="s">
+      <c r="C234" s="20" t="s">
         <v>499</v>
       </c>
       <c r="D234" s="14" t="s">
@@ -9827,19 +9841,19 @@
       </c>
       <c r="H234" s="15"/>
       <c r="I234" s="15"/>
-      <c r="J234" s="22"/>
-      <c r="K234" s="22" t="s">
+      <c r="J234" s="20"/>
+      <c r="K234" s="20" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="235" spans="1:11">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="16" t="s">
         <v>411</v>
       </c>
       <c r="B235" s="16" t="s">
         <v>500</v>
       </c>
-      <c r="C235" s="23" t="s">
+      <c r="C235" s="21" t="s">
         <v>501</v>
       </c>
       <c r="D235" s="16" t="s">
@@ -9856,19 +9870,19 @@
       </c>
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
-      <c r="J235" s="23"/>
-      <c r="K235" s="23" t="s">
+      <c r="J235" s="21"/>
+      <c r="K235" s="21" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="236" spans="1:11">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="14" t="s">
         <v>411</v>
       </c>
       <c r="B236" s="14" t="s">
         <v>503</v>
       </c>
-      <c r="C236" s="22" t="s">
+      <c r="C236" s="20" t="s">
         <v>504</v>
       </c>
       <c r="D236" s="14" t="s">
@@ -9885,19 +9899,19 @@
       </c>
       <c r="H236" s="15"/>
       <c r="I236" s="15"/>
-      <c r="J236" s="22"/>
-      <c r="K236" s="22" t="s">
+      <c r="J236" s="20"/>
+      <c r="K236" s="20" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="237" spans="1:11">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="16" t="s">
         <v>411</v>
       </c>
       <c r="B237" s="16" t="s">
         <v>505</v>
       </c>
-      <c r="C237" s="23" t="s">
+      <c r="C237" s="21" t="s">
         <v>506</v>
       </c>
       <c r="D237" s="16" t="s">
@@ -9914,19 +9928,19 @@
       </c>
       <c r="H237" s="17"/>
       <c r="I237" s="17"/>
-      <c r="J237" s="23"/>
-      <c r="K237" s="23" t="s">
+      <c r="J237" s="21"/>
+      <c r="K237" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="238" spans="1:11">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="14" t="s">
         <v>411</v>
       </c>
       <c r="B238" s="14" t="s">
         <v>507</v>
       </c>
-      <c r="C238" s="22" t="s">
+      <c r="C238" s="20" t="s">
         <v>508</v>
       </c>
       <c r="D238" s="14" t="s">
@@ -9943,19 +9957,19 @@
       </c>
       <c r="H238" s="15"/>
       <c r="I238" s="15"/>
-      <c r="J238" s="22"/>
-      <c r="K238" s="22" t="s">
+      <c r="J238" s="20"/>
+      <c r="K238" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="239" spans="1:11">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="16" t="s">
         <v>411</v>
       </c>
       <c r="B239" s="16" t="s">
         <v>509</v>
       </c>
-      <c r="C239" s="23" t="s">
+      <c r="C239" s="21" t="s">
         <v>510</v>
       </c>
       <c r="D239" s="16" t="s">
@@ -9972,19 +9986,19 @@
       </c>
       <c r="H239" s="17"/>
       <c r="I239" s="17"/>
-      <c r="J239" s="23"/>
-      <c r="K239" s="23" t="s">
+      <c r="J239" s="21"/>
+      <c r="K239" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="240" spans="1:11">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="14" t="s">
         <v>411</v>
       </c>
       <c r="B240" s="14" t="s">
         <v>511</v>
       </c>
-      <c r="C240" s="22" t="s">
+      <c r="C240" s="20" t="s">
         <v>512</v>
       </c>
       <c r="D240" s="14" t="s">
@@ -10003,19 +10017,19 @@
       <c r="I240" s="15">
         <v>42210</v>
       </c>
-      <c r="J240" s="22"/>
-      <c r="K240" s="22" t="s">
+      <c r="J240" s="20"/>
+      <c r="K240" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="241" spans="1:11">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="16" t="s">
         <v>411</v>
       </c>
       <c r="B241" s="16" t="s">
         <v>513</v>
       </c>
-      <c r="C241" s="23" t="s">
+      <c r="C241" s="21" t="s">
         <v>514</v>
       </c>
       <c r="D241" s="16" t="s">
@@ -10032,19 +10046,19 @@
       </c>
       <c r="H241" s="17"/>
       <c r="I241" s="17"/>
-      <c r="J241" s="23"/>
-      <c r="K241" s="23" t="s">
+      <c r="J241" s="21"/>
+      <c r="K241" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="242" spans="1:11">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="14" t="s">
         <v>411</v>
       </c>
       <c r="B242" s="14" t="s">
         <v>515</v>
       </c>
-      <c r="C242" s="22" t="s">
+      <c r="C242" s="20" t="s">
         <v>516</v>
       </c>
       <c r="D242" s="14" t="s">
@@ -10061,19 +10075,19 @@
       </c>
       <c r="H242" s="15"/>
       <c r="I242" s="15"/>
-      <c r="J242" s="22"/>
-      <c r="K242" s="22" t="s">
+      <c r="J242" s="20"/>
+      <c r="K242" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="243" spans="1:11">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="16" t="s">
         <v>411</v>
       </c>
       <c r="B243" s="16" t="s">
         <v>517</v>
       </c>
-      <c r="C243" s="23" t="s">
+      <c r="C243" s="21" t="s">
         <v>518</v>
       </c>
       <c r="D243" s="16" t="s">
@@ -10090,19 +10104,19 @@
       </c>
       <c r="H243" s="17"/>
       <c r="I243" s="17"/>
-      <c r="J243" s="23"/>
-      <c r="K243" s="23" t="s">
+      <c r="J243" s="21"/>
+      <c r="K243" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="244" spans="1:11">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="14" t="s">
         <v>411</v>
       </c>
       <c r="B244" s="14" t="s">
         <v>519</v>
       </c>
-      <c r="C244" s="22" t="s">
+      <c r="C244" s="20" t="s">
         <v>520</v>
       </c>
       <c r="D244" s="14" t="s">
@@ -10119,19 +10133,19 @@
       </c>
       <c r="H244" s="15"/>
       <c r="I244" s="15"/>
-      <c r="J244" s="22"/>
-      <c r="K244" s="22" t="s">
+      <c r="J244" s="20"/>
+      <c r="K244" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="245" spans="1:11">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="16" t="s">
         <v>411</v>
       </c>
       <c r="B245" s="16" t="s">
         <v>521</v>
       </c>
-      <c r="C245" s="23" t="s">
+      <c r="C245" s="21" t="s">
         <v>522</v>
       </c>
       <c r="D245" s="16" t="s">
@@ -10148,19 +10162,19 @@
       </c>
       <c r="H245" s="17"/>
       <c r="I245" s="17"/>
-      <c r="J245" s="23"/>
-      <c r="K245" s="23" t="s">
+      <c r="J245" s="21"/>
+      <c r="K245" s="21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="246" spans="1:11">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="14" t="s">
         <v>411</v>
       </c>
       <c r="B246" s="14" t="s">
         <v>523</v>
       </c>
-      <c r="C246" s="22" t="s">
+      <c r="C246" s="20" t="s">
         <v>524</v>
       </c>
       <c r="D246" s="14" t="s">
@@ -10179,19 +10193,19 @@
       <c r="I246" s="15">
         <v>42418</v>
       </c>
-      <c r="J246" s="22"/>
-      <c r="K246" s="22" t="s">
+      <c r="J246" s="20"/>
+      <c r="K246" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="247" spans="1:11">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="16" t="s">
         <v>411</v>
       </c>
       <c r="B247" s="16" t="s">
         <v>525</v>
       </c>
-      <c r="C247" s="23" t="s">
+      <c r="C247" s="21" t="s">
         <v>526</v>
       </c>
       <c r="D247" s="16" t="s">
@@ -10208,19 +10222,19 @@
       </c>
       <c r="H247" s="17"/>
       <c r="I247" s="17"/>
-      <c r="J247" s="23"/>
-      <c r="K247" s="23" t="s">
+      <c r="J247" s="21"/>
+      <c r="K247" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="248" spans="1:11">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="14" t="s">
         <v>411</v>
       </c>
       <c r="B248" s="14" t="s">
         <v>467</v>
       </c>
-      <c r="C248" s="22" t="s">
+      <c r="C248" s="20" t="s">
         <v>468</v>
       </c>
       <c r="D248" s="14" t="s">
@@ -10237,19 +10251,19 @@
       </c>
       <c r="H248" s="15"/>
       <c r="I248" s="15"/>
-      <c r="J248" s="22"/>
-      <c r="K248" s="22" t="s">
+      <c r="J248" s="20"/>
+      <c r="K248" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="249" spans="1:11">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="16" t="s">
         <v>411</v>
       </c>
       <c r="B249" s="16" t="s">
         <v>469</v>
       </c>
-      <c r="C249" s="23" t="s">
+      <c r="C249" s="21" t="s">
         <v>470</v>
       </c>
       <c r="D249" s="16" t="s">
@@ -10266,19 +10280,19 @@
       </c>
       <c r="H249" s="17"/>
       <c r="I249" s="17"/>
-      <c r="J249" s="23"/>
-      <c r="K249" s="23" t="s">
+      <c r="J249" s="21"/>
+      <c r="K249" s="21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="250" spans="1:11">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="14" t="s">
         <v>411</v>
       </c>
       <c r="B250" s="14" t="s">
         <v>471</v>
       </c>
-      <c r="C250" s="22" t="s">
+      <c r="C250" s="20" t="s">
         <v>472</v>
       </c>
       <c r="D250" s="14" t="s">
@@ -10295,19 +10309,19 @@
       </c>
       <c r="H250" s="15"/>
       <c r="I250" s="15"/>
-      <c r="J250" s="22"/>
-      <c r="K250" s="22" t="s">
+      <c r="J250" s="20"/>
+      <c r="K250" s="20" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="251" spans="1:11">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="16" t="s">
         <v>411</v>
       </c>
       <c r="B251" s="16" t="s">
         <v>432</v>
       </c>
-      <c r="C251" s="23" t="s">
+      <c r="C251" s="21" t="s">
         <v>433</v>
       </c>
       <c r="D251" s="16" t="s">
@@ -10326,21 +10340,21 @@
       <c r="I251" s="17">
         <v>43343</v>
       </c>
-      <c r="J251" s="23" t="s">
+      <c r="J251" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="K251" s="23" t="s">
+      <c r="K251" s="21" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="252" spans="1:11">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="14" t="s">
         <v>411</v>
       </c>
       <c r="B252" s="14" t="s">
         <v>442</v>
       </c>
-      <c r="C252" s="22" t="s">
+      <c r="C252" s="20" t="s">
         <v>443</v>
       </c>
       <c r="D252" s="14" t="s">
@@ -10357,19 +10371,19 @@
       </c>
       <c r="H252" s="15"/>
       <c r="I252" s="15"/>
-      <c r="J252" s="22"/>
-      <c r="K252" s="22" t="s">
+      <c r="J252" s="20"/>
+      <c r="K252" s="20" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="253" spans="1:11">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="16" t="s">
         <v>411</v>
       </c>
       <c r="B253" s="16" t="s">
         <v>445</v>
       </c>
-      <c r="C253" s="23" t="s">
+      <c r="C253" s="21" t="s">
         <v>446</v>
       </c>
       <c r="D253" s="16" t="s">
@@ -10386,19 +10400,19 @@
       </c>
       <c r="H253" s="17"/>
       <c r="I253" s="17"/>
-      <c r="J253" s="23"/>
-      <c r="K253" s="23" t="s">
+      <c r="J253" s="21"/>
+      <c r="K253" s="21" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="254" spans="1:11">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="14" t="s">
         <v>411</v>
       </c>
       <c r="B254" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="C254" s="22" t="s">
+      <c r="C254" s="20" t="s">
         <v>448</v>
       </c>
       <c r="D254" s="14" t="s">
@@ -10415,19 +10429,19 @@
       </c>
       <c r="H254" s="15"/>
       <c r="I254" s="15"/>
-      <c r="J254" s="22"/>
-      <c r="K254" s="22" t="s">
+      <c r="J254" s="20"/>
+      <c r="K254" s="20" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="255" spans="1:11">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="16" t="s">
         <v>411</v>
       </c>
       <c r="B255" s="16" t="s">
         <v>449</v>
       </c>
-      <c r="C255" s="23" t="s">
+      <c r="C255" s="21" t="s">
         <v>450</v>
       </c>
       <c r="D255" s="16" t="s">
@@ -10444,19 +10458,19 @@
       </c>
       <c r="H255" s="17"/>
       <c r="I255" s="17"/>
-      <c r="J255" s="23"/>
-      <c r="K255" s="23" t="s">
+      <c r="J255" s="21"/>
+      <c r="K255" s="21" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="256" spans="1:11">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="14" t="s">
         <v>411</v>
       </c>
       <c r="B256" s="14" t="s">
         <v>451</v>
       </c>
-      <c r="C256" s="22" t="s">
+      <c r="C256" s="20" t="s">
         <v>452</v>
       </c>
       <c r="D256" s="14" t="s">
@@ -10473,19 +10487,19 @@
       </c>
       <c r="H256" s="15"/>
       <c r="I256" s="15"/>
-      <c r="J256" s="22"/>
-      <c r="K256" s="22" t="s">
+      <c r="J256" s="20"/>
+      <c r="K256" s="20" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="257" spans="1:11">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="16" t="s">
         <v>411</v>
       </c>
       <c r="B257" s="16" t="s">
         <v>453</v>
       </c>
-      <c r="C257" s="23" t="s">
+      <c r="C257" s="21" t="s">
         <v>454</v>
       </c>
       <c r="D257" s="16" t="s">
@@ -10502,19 +10516,19 @@
       </c>
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
-      <c r="J257" s="23"/>
-      <c r="K257" s="23" t="s">
+      <c r="J257" s="21"/>
+      <c r="K257" s="21" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="258" spans="1:11">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="14" t="s">
         <v>411</v>
       </c>
       <c r="B258" s="14" t="s">
         <v>455</v>
       </c>
-      <c r="C258" s="22" t="s">
+      <c r="C258" s="20" t="s">
         <v>456</v>
       </c>
       <c r="D258" s="14" t="s">
@@ -10531,19 +10545,19 @@
       </c>
       <c r="H258" s="15"/>
       <c r="I258" s="15"/>
-      <c r="J258" s="22"/>
-      <c r="K258" s="22" t="s">
+      <c r="J258" s="20"/>
+      <c r="K258" s="20" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="259" spans="1:11">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="16" t="s">
         <v>411</v>
       </c>
       <c r="B259" s="16" t="s">
         <v>457</v>
       </c>
-      <c r="C259" s="23" t="s">
+      <c r="C259" s="21" t="s">
         <v>458</v>
       </c>
       <c r="D259" s="16" t="s">
@@ -10560,19 +10574,19 @@
       </c>
       <c r="H259" s="17"/>
       <c r="I259" s="17"/>
-      <c r="J259" s="23"/>
-      <c r="K259" s="23" t="s">
+      <c r="J259" s="21"/>
+      <c r="K259" s="21" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="260" spans="1:11">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="14" t="s">
         <v>411</v>
       </c>
       <c r="B260" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="C260" s="22" t="s">
+      <c r="C260" s="20" t="s">
         <v>460</v>
       </c>
       <c r="D260" s="14" t="s">
@@ -10589,19 +10603,19 @@
       </c>
       <c r="H260" s="15"/>
       <c r="I260" s="15"/>
-      <c r="J260" s="22"/>
-      <c r="K260" s="22" t="s">
+      <c r="J260" s="20"/>
+      <c r="K260" s="20" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="261" spans="1:11">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="16" t="s">
         <v>411</v>
       </c>
       <c r="B261" s="16" t="s">
         <v>461</v>
       </c>
-      <c r="C261" s="23" t="s">
+      <c r="C261" s="21" t="s">
         <v>462</v>
       </c>
       <c r="D261" s="16" t="s">
@@ -10618,19 +10632,19 @@
       </c>
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
-      <c r="J261" s="23"/>
-      <c r="K261" s="23" t="s">
+      <c r="J261" s="21"/>
+      <c r="K261" s="21" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="262" spans="1:11">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="14" t="s">
         <v>411</v>
       </c>
       <c r="B262" s="14" t="s">
         <v>463</v>
       </c>
-      <c r="C262" s="22" t="s">
+      <c r="C262" s="20" t="s">
         <v>464</v>
       </c>
       <c r="D262" s="14" t="s">
@@ -10647,19 +10661,19 @@
       </c>
       <c r="H262" s="15"/>
       <c r="I262" s="15"/>
-      <c r="J262" s="22"/>
-      <c r="K262" s="22" t="s">
+      <c r="J262" s="20"/>
+      <c r="K262" s="20" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="263" spans="1:11">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="16" t="s">
         <v>411</v>
       </c>
       <c r="B263" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="C263" s="23" t="s">
+      <c r="C263" s="21" t="s">
         <v>466</v>
       </c>
       <c r="D263" s="16" t="s">
@@ -10676,19 +10690,19 @@
       </c>
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
-      <c r="J263" s="23"/>
-      <c r="K263" s="23" t="s">
+      <c r="J263" s="21"/>
+      <c r="K263" s="21" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="264" spans="1:11">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="14" t="s">
         <v>411</v>
       </c>
       <c r="B264" s="14" t="s">
         <v>436</v>
       </c>
-      <c r="C264" s="22" t="s">
+      <c r="C264" s="20" t="s">
         <v>437</v>
       </c>
       <c r="D264" s="14" t="s">
@@ -10707,21 +10721,21 @@
       <c r="I264" s="15">
         <v>43244</v>
       </c>
-      <c r="J264" s="22" t="s">
+      <c r="J264" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K264" s="22" t="s">
+      <c r="K264" s="20" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="265" spans="1:11">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="16" t="s">
         <v>411</v>
       </c>
       <c r="B265" s="16" t="s">
         <v>438</v>
       </c>
-      <c r="C265" s="23" t="s">
+      <c r="C265" s="21" t="s">
         <v>439</v>
       </c>
       <c r="D265" s="16" t="s">
@@ -10740,21 +10754,21 @@
       <c r="I265" s="17">
         <v>43244</v>
       </c>
-      <c r="J265" s="23" t="s">
+      <c r="J265" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="K265" s="23" t="s">
+      <c r="K265" s="21" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="266" spans="1:11">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="14" t="s">
         <v>411</v>
       </c>
       <c r="B266" s="14" t="s">
         <v>440</v>
       </c>
-      <c r="C266" s="22" t="s">
+      <c r="C266" s="20" t="s">
         <v>441</v>
       </c>
       <c r="D266" s="14" t="s">
@@ -10773,21 +10787,21 @@
       <c r="I266" s="15">
         <v>43244</v>
       </c>
-      <c r="J266" s="22" t="s">
+      <c r="J266" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K266" s="22" t="s">
+      <c r="K266" s="20" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="267" spans="1:11">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="16" t="s">
         <v>411</v>
       </c>
       <c r="B267" s="16" t="s">
         <v>412</v>
       </c>
-      <c r="C267" s="23" t="s">
+      <c r="C267" s="21" t="s">
         <v>413</v>
       </c>
       <c r="D267" s="16" t="s">
@@ -10804,19 +10818,19 @@
       </c>
       <c r="H267" s="17"/>
       <c r="I267" s="17"/>
-      <c r="J267" s="23"/>
-      <c r="K267" s="23" t="s">
+      <c r="J267" s="21"/>
+      <c r="K267" s="21" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="268" spans="1:11">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="14" t="s">
         <v>411</v>
       </c>
       <c r="B268" s="14" t="s">
         <v>426</v>
       </c>
-      <c r="C268" s="22" t="s">
+      <c r="C268" s="20" t="s">
         <v>427</v>
       </c>
       <c r="D268" s="14" t="s">
@@ -10835,19 +10849,19 @@
       <c r="I268" s="15">
         <v>43131</v>
       </c>
-      <c r="J268" s="22"/>
-      <c r="K268" s="22" t="s">
+      <c r="J268" s="20"/>
+      <c r="K268" s="20" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="269" spans="1:11">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="16" t="s">
         <v>411</v>
       </c>
       <c r="B269" s="16" t="s">
         <v>418</v>
       </c>
-      <c r="C269" s="23" t="s">
+      <c r="C269" s="21" t="s">
         <v>419</v>
       </c>
       <c r="D269" s="16" t="s">
@@ -10866,21 +10880,21 @@
       <c r="I269" s="17">
         <v>42948</v>
       </c>
-      <c r="J269" s="23" t="s">
+      <c r="J269" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="K269" s="23" t="s">
+      <c r="K269" s="21" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="270" spans="1:11">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="14" t="s">
         <v>411</v>
       </c>
       <c r="B270" s="14" t="s">
         <v>420</v>
       </c>
-      <c r="C270" s="22" t="s">
+      <c r="C270" s="20" t="s">
         <v>421</v>
       </c>
       <c r="D270" s="14" t="s">
@@ -10899,21 +10913,21 @@
       <c r="I270" s="15">
         <v>42948</v>
       </c>
-      <c r="J270" s="22" t="s">
+      <c r="J270" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="K270" s="22" t="s">
+      <c r="K270" s="20" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="271" spans="1:11">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="16" t="s">
         <v>411</v>
       </c>
       <c r="B271" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="C271" s="23" t="s">
+      <c r="C271" s="21" t="s">
         <v>435</v>
       </c>
       <c r="D271" s="16" t="s">
@@ -10930,21 +10944,21 @@
       </c>
       <c r="H271" s="17"/>
       <c r="I271" s="17"/>
-      <c r="J271" s="23" t="s">
+      <c r="J271" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="K271" s="23" t="s">
+      <c r="K271" s="21" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="272" spans="1:11">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="14" t="s">
         <v>411</v>
       </c>
       <c r="B272" s="14" t="s">
         <v>429</v>
       </c>
-      <c r="C272" s="22" t="s">
+      <c r="C272" s="20" t="s">
         <v>430</v>
       </c>
       <c r="D272" s="14" t="s">
@@ -10961,21 +10975,21 @@
       </c>
       <c r="H272" s="15"/>
       <c r="I272" s="15"/>
-      <c r="J272" s="22" t="s">
+      <c r="J272" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K272" s="22" t="s">
+      <c r="K272" s="20" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="273" spans="1:11">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="16" t="s">
         <v>411</v>
       </c>
       <c r="B273" s="16" t="s">
         <v>422</v>
       </c>
-      <c r="C273" s="23" t="s">
+      <c r="C273" s="21" t="s">
         <v>423</v>
       </c>
       <c r="D273" s="16" t="s">
@@ -10992,21 +11006,21 @@
       </c>
       <c r="H273" s="17"/>
       <c r="I273" s="17"/>
-      <c r="J273" s="23" t="s">
+      <c r="J273" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="K273" s="23" t="s">
+      <c r="K273" s="21" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="274" spans="1:11">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="14" t="s">
         <v>411</v>
       </c>
       <c r="B274" s="14" t="s">
         <v>416</v>
       </c>
-      <c r="C274" s="22" t="s">
+      <c r="C274" s="20" t="s">
         <v>417</v>
       </c>
       <c r="D274" s="14" t="s">
@@ -11023,21 +11037,21 @@
       </c>
       <c r="H274" s="15"/>
       <c r="I274" s="15"/>
-      <c r="J274" s="22" t="s">
+      <c r="J274" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K274" s="22" t="s">
+      <c r="K274" s="20" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="275" spans="1:11">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="16" t="s">
         <v>537</v>
       </c>
       <c r="B275" s="16" t="s">
         <v>545</v>
       </c>
-      <c r="C275" s="23" t="s">
+      <c r="C275" s="21" t="s">
         <v>546</v>
       </c>
       <c r="D275" s="16" t="s">
@@ -11056,19 +11070,19 @@
       <c r="I275" s="17">
         <v>43465</v>
       </c>
-      <c r="J275" s="23"/>
-      <c r="K275" s="23" t="s">
+      <c r="J275" s="21"/>
+      <c r="K275" s="21" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="276" spans="1:11">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="14" t="s">
         <v>537</v>
       </c>
       <c r="B276" s="14" t="s">
         <v>549</v>
       </c>
-      <c r="C276" s="22" t="s">
+      <c r="C276" s="20" t="s">
         <v>550</v>
       </c>
       <c r="D276" s="14" t="s">
@@ -11087,19 +11101,19 @@
       <c r="I276" s="15">
         <v>43465</v>
       </c>
-      <c r="J276" s="22"/>
-      <c r="K276" s="22" t="s">
+      <c r="J276" s="20"/>
+      <c r="K276" s="20" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="277" spans="1:11">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="16" t="s">
         <v>537</v>
       </c>
       <c r="B277" s="16" t="s">
         <v>551</v>
       </c>
-      <c r="C277" s="23" t="s">
+      <c r="C277" s="21" t="s">
         <v>552</v>
       </c>
       <c r="D277" s="16" t="s">
@@ -11118,19 +11132,19 @@
       <c r="I277" s="17">
         <v>43465</v>
       </c>
-      <c r="J277" s="23"/>
-      <c r="K277" s="23" t="s">
+      <c r="J277" s="21"/>
+      <c r="K277" s="21" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="278" spans="1:11">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="14" t="s">
         <v>537</v>
       </c>
       <c r="B278" s="14" t="s">
         <v>553</v>
       </c>
-      <c r="C278" s="22" t="s">
+      <c r="C278" s="20" t="s">
         <v>554</v>
       </c>
       <c r="D278" s="14" t="s">
@@ -11149,19 +11163,19 @@
       <c r="I278" s="15">
         <v>43465</v>
       </c>
-      <c r="J278" s="22"/>
-      <c r="K278" s="22" t="s">
+      <c r="J278" s="20"/>
+      <c r="K278" s="20" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="279" spans="1:11">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="16" t="s">
         <v>537</v>
       </c>
       <c r="B279" s="16" t="s">
         <v>555</v>
       </c>
-      <c r="C279" s="23" t="s">
+      <c r="C279" s="21" t="s">
         <v>556</v>
       </c>
       <c r="D279" s="16" t="s">
@@ -11180,19 +11194,19 @@
       <c r="I279" s="17">
         <v>43465</v>
       </c>
-      <c r="J279" s="23"/>
-      <c r="K279" s="23" t="s">
+      <c r="J279" s="21"/>
+      <c r="K279" s="21" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="280" spans="1:11">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="14" t="s">
         <v>537</v>
       </c>
       <c r="B280" s="14" t="s">
         <v>557</v>
       </c>
-      <c r="C280" s="22" t="s">
+      <c r="C280" s="20" t="s">
         <v>558</v>
       </c>
       <c r="D280" s="14" t="s">
@@ -11211,19 +11225,19 @@
       <c r="I280" s="15">
         <v>43404</v>
       </c>
-      <c r="J280" s="22"/>
-      <c r="K280" s="22" t="s">
+      <c r="J280" s="20"/>
+      <c r="K280" s="20" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="281" spans="1:11">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="16" t="s">
         <v>537</v>
       </c>
       <c r="B281" s="16" t="s">
         <v>562</v>
       </c>
-      <c r="C281" s="23" t="s">
+      <c r="C281" s="21" t="s">
         <v>563</v>
       </c>
       <c r="D281" s="16" t="s">
@@ -11240,19 +11254,19 @@
       </c>
       <c r="H281" s="17"/>
       <c r="I281" s="17"/>
-      <c r="J281" s="23"/>
-      <c r="K281" s="23" t="s">
+      <c r="J281" s="21"/>
+      <c r="K281" s="21" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="282" spans="1:11">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="14" t="s">
         <v>537</v>
       </c>
       <c r="B282" s="14" t="s">
         <v>560</v>
       </c>
-      <c r="C282" s="22" t="s">
+      <c r="C282" s="20" t="s">
         <v>560</v>
       </c>
       <c r="D282" s="14" t="s">
@@ -11273,19 +11287,19 @@
       <c r="I282" s="15">
         <v>43160</v>
       </c>
-      <c r="J282" s="22"/>
-      <c r="K282" s="22" t="s">
+      <c r="J282" s="20"/>
+      <c r="K282" s="20" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="283" spans="1:11">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="16" t="s">
         <v>537</v>
       </c>
       <c r="B283" s="16" t="s">
         <v>544</v>
       </c>
-      <c r="C283" s="23" t="s">
+      <c r="C283" s="21" t="s">
         <v>538</v>
       </c>
       <c r="D283" s="16" t="s">
@@ -11304,19 +11318,19 @@
       <c r="I283" s="17">
         <v>42551</v>
       </c>
-      <c r="J283" s="23"/>
-      <c r="K283" s="23" t="s">
+      <c r="J283" s="21"/>
+      <c r="K283" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="284" spans="1:11">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="14" t="s">
         <v>537</v>
       </c>
       <c r="B284" s="14" t="s">
         <v>543</v>
       </c>
-      <c r="C284" s="22" t="s">
+      <c r="C284" s="20" t="s">
         <v>543</v>
       </c>
       <c r="D284" s="14" t="s">
@@ -11337,21 +11351,21 @@
       <c r="I284" s="15">
         <v>42428</v>
       </c>
-      <c r="J284" s="22" t="s">
+      <c r="J284" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="K284" s="22" t="s">
+      <c r="K284" s="20" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="285" spans="1:11">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="16" t="s">
         <v>537</v>
       </c>
       <c r="B285" s="16" t="s">
         <v>539</v>
       </c>
-      <c r="C285" s="23" t="s">
+      <c r="C285" s="21" t="s">
         <v>540</v>
       </c>
       <c r="D285" s="16" t="s">
@@ -11370,21 +11384,21 @@
       <c r="I285" s="17">
         <v>41882</v>
       </c>
-      <c r="J285" s="23" t="s">
+      <c r="J285" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="K285" s="23" t="s">
+      <c r="K285" s="21" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="286" spans="1:11">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="14" t="s">
         <v>565</v>
       </c>
       <c r="B286" s="14" t="s">
         <v>571</v>
       </c>
-      <c r="C286" s="22" t="s">
+      <c r="C286" s="20" t="s">
         <v>567</v>
       </c>
       <c r="D286" s="14" t="s">
@@ -11403,21 +11417,21 @@
       <c r="I286" s="15">
         <v>44779</v>
       </c>
-      <c r="J286" s="22" t="s">
+      <c r="J286" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="K286" s="22" t="s">
+      <c r="K286" s="20" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="287" spans="1:11">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="16" t="s">
         <v>565</v>
       </c>
       <c r="B287" s="16" t="s">
         <v>573</v>
       </c>
-      <c r="C287" s="23" t="s">
+      <c r="C287" s="21" t="s">
         <v>567</v>
       </c>
       <c r="D287" s="16" t="s">
@@ -11436,21 +11450,21 @@
       <c r="I287" s="17">
         <v>44779</v>
       </c>
-      <c r="J287" s="23" t="s">
+      <c r="J287" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="K287" s="23" t="s">
+      <c r="K287" s="21" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="288" spans="1:11">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="14" t="s">
         <v>565</v>
       </c>
       <c r="B288" s="14" t="s">
         <v>575</v>
       </c>
-      <c r="C288" s="22" t="s">
+      <c r="C288" s="20" t="s">
         <v>567</v>
       </c>
       <c r="D288" s="14" t="s">
@@ -11469,21 +11483,21 @@
       <c r="I288" s="15">
         <v>44779</v>
       </c>
-      <c r="J288" s="22" t="s">
+      <c r="J288" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="K288" s="22" t="s">
+      <c r="K288" s="20" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="289" spans="1:11">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="16" t="s">
         <v>565</v>
       </c>
       <c r="B289" s="16" t="s">
         <v>596</v>
       </c>
-      <c r="C289" s="23" t="s">
+      <c r="C289" s="21" t="s">
         <v>597</v>
       </c>
       <c r="D289" s="16" t="s">
@@ -11502,21 +11516,21 @@
       <c r="I289" s="17">
         <v>44196</v>
       </c>
-      <c r="J289" s="23" t="s">
+      <c r="J289" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="K289" s="23" t="s">
+      <c r="K289" s="21" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="290" spans="1:11">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="14" t="s">
         <v>565</v>
       </c>
       <c r="B290" s="14" t="s">
         <v>592</v>
       </c>
-      <c r="C290" s="22" t="s">
+      <c r="C290" s="20" t="s">
         <v>593</v>
       </c>
       <c r="D290" s="14" t="s">
@@ -11535,21 +11549,21 @@
       <c r="I290" s="15">
         <v>43739</v>
       </c>
-      <c r="J290" s="22" t="s">
+      <c r="J290" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K290" s="22" t="s">
+      <c r="K290" s="20" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="291" spans="1:11">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="16" t="s">
         <v>565</v>
       </c>
       <c r="B291" s="16" t="s">
         <v>582</v>
       </c>
-      <c r="C291" s="23" t="s">
+      <c r="C291" s="21" t="s">
         <v>583</v>
       </c>
       <c r="D291" s="16" t="s">
@@ -11566,21 +11580,21 @@
       </c>
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
-      <c r="J291" s="23" t="s">
+      <c r="J291" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="K291" s="23" t="s">
+      <c r="K291" s="21" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="292" spans="1:11">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="14" t="s">
         <v>565</v>
       </c>
       <c r="B292" s="14" t="s">
         <v>584</v>
       </c>
-      <c r="C292" s="22" t="s">
+      <c r="C292" s="20" t="s">
         <v>585</v>
       </c>
       <c r="D292" s="14" t="s">
@@ -11597,21 +11611,21 @@
       </c>
       <c r="H292" s="15"/>
       <c r="I292" s="15"/>
-      <c r="J292" s="22" t="s">
+      <c r="J292" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="K292" s="22" t="s">
+      <c r="K292" s="20" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="293" spans="1:11">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="16" t="s">
         <v>565</v>
       </c>
       <c r="B293" s="16" t="s">
         <v>590</v>
       </c>
-      <c r="C293" s="23" t="s">
+      <c r="C293" s="21" t="s">
         <v>591</v>
       </c>
       <c r="D293" s="16" t="s">
@@ -11628,21 +11642,21 @@
       </c>
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
-      <c r="J293" s="23" t="s">
+      <c r="J293" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="K293" s="23" t="s">
+      <c r="K293" s="21" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="294" spans="1:11">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="14" t="s">
         <v>565</v>
       </c>
       <c r="B294" s="14" t="s">
         <v>586</v>
       </c>
-      <c r="C294" s="22" t="s">
+      <c r="C294" s="20" t="s">
         <v>587</v>
       </c>
       <c r="D294" s="14" t="s">
@@ -11659,21 +11673,21 @@
       </c>
       <c r="H294" s="15"/>
       <c r="I294" s="15"/>
-      <c r="J294" s="22" t="s">
+      <c r="J294" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K294" s="22" t="s">
+      <c r="K294" s="20" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="295" spans="1:11">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="16" t="s">
         <v>565</v>
       </c>
       <c r="B295" s="16" t="s">
         <v>588</v>
       </c>
-      <c r="C295" s="23" t="s">
+      <c r="C295" s="21" t="s">
         <v>589</v>
       </c>
       <c r="D295" s="16" t="s">
@@ -11690,21 +11704,21 @@
       </c>
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
-      <c r="J295" s="23" t="s">
+      <c r="J295" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="K295" s="23" t="s">
+      <c r="K295" s="21" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="296" spans="1:11">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="14" t="s">
         <v>565</v>
       </c>
       <c r="B296" s="14" t="s">
         <v>580</v>
       </c>
-      <c r="C296" s="22" t="s">
+      <c r="C296" s="20" t="s">
         <v>581</v>
       </c>
       <c r="D296" s="14" t="s">
@@ -11721,21 +11735,21 @@
       </c>
       <c r="H296" s="15"/>
       <c r="I296" s="15"/>
-      <c r="J296" s="22" t="s">
+      <c r="J296" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K296" s="22" t="s">
+      <c r="K296" s="20" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="297" spans="1:11">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="16" t="s">
         <v>565</v>
       </c>
       <c r="B297" s="16" t="s">
         <v>578</v>
       </c>
-      <c r="C297" s="23" t="s">
+      <c r="C297" s="21" t="s">
         <v>579</v>
       </c>
       <c r="D297" s="16" t="s">
@@ -11752,21 +11766,21 @@
       </c>
       <c r="H297" s="17"/>
       <c r="I297" s="17"/>
-      <c r="J297" s="23" t="s">
+      <c r="J297" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="K297" s="23" t="s">
+      <c r="K297" s="21" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="298" spans="1:11">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="14" t="s">
         <v>565</v>
       </c>
       <c r="B298" s="14" t="s">
         <v>566</v>
       </c>
-      <c r="C298" s="22" t="s">
+      <c r="C298" s="20" t="s">
         <v>567</v>
       </c>
       <c r="D298" s="14" t="s">
@@ -11783,21 +11797,21 @@
       </c>
       <c r="H298" s="15"/>
       <c r="I298" s="15"/>
-      <c r="J298" s="22" t="s">
+      <c r="J298" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="K298" s="22" t="s">
+      <c r="K298" s="20" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="299" spans="1:11">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="16" t="s">
         <v>565</v>
       </c>
       <c r="B299" s="16" t="s">
         <v>569</v>
       </c>
-      <c r="C299" s="23" t="s">
+      <c r="C299" s="21" t="s">
         <v>570</v>
       </c>
       <c r="D299" s="16" t="s">
@@ -11814,21 +11828,21 @@
       </c>
       <c r="H299" s="17"/>
       <c r="I299" s="17"/>
-      <c r="J299" s="23" t="s">
+      <c r="J299" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="K299" s="23" t="s">
+      <c r="K299" s="21" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="300" spans="1:11">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="14" t="s">
         <v>565</v>
       </c>
       <c r="B300" s="14" t="s">
         <v>572</v>
       </c>
-      <c r="C300" s="22" t="s">
+      <c r="C300" s="20" t="s">
         <v>570</v>
       </c>
       <c r="D300" s="14" t="s">
@@ -11845,21 +11859,21 @@
       </c>
       <c r="H300" s="15"/>
       <c r="I300" s="15"/>
-      <c r="J300" s="22" t="s">
+      <c r="J300" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="K300" s="22" t="s">
+      <c r="K300" s="20" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="301" spans="1:11">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="16" t="s">
         <v>565</v>
       </c>
       <c r="B301" s="16" t="s">
         <v>574</v>
       </c>
-      <c r="C301" s="23" t="s">
+      <c r="C301" s="21" t="s">
         <v>570</v>
       </c>
       <c r="D301" s="16" t="s">
@@ -11876,21 +11890,21 @@
       </c>
       <c r="H301" s="17"/>
       <c r="I301" s="17"/>
-      <c r="J301" s="23" t="s">
+      <c r="J301" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="K301" s="23" t="s">
+      <c r="K301" s="21" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="302" spans="1:11">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="14" t="s">
         <v>565</v>
       </c>
       <c r="B302" s="14" t="s">
         <v>576</v>
       </c>
-      <c r="C302" s="22" t="s">
+      <c r="C302" s="20" t="s">
         <v>567</v>
       </c>
       <c r="D302" s="14" t="s">
@@ -11907,21 +11921,21 @@
       </c>
       <c r="H302" s="15"/>
       <c r="I302" s="15"/>
-      <c r="J302" s="22" t="s">
+      <c r="J302" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="K302" s="22" t="s">
+      <c r="K302" s="20" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="303" spans="1:11">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="16" t="s">
         <v>565</v>
       </c>
       <c r="B303" s="16" t="s">
         <v>577</v>
       </c>
-      <c r="C303" s="23" t="s">
+      <c r="C303" s="21" t="s">
         <v>567</v>
       </c>
       <c r="D303" s="16" t="s">
@@ -11938,21 +11952,21 @@
       </c>
       <c r="H303" s="17"/>
       <c r="I303" s="17"/>
-      <c r="J303" s="23" t="s">
+      <c r="J303" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="K303" s="23" t="s">
+      <c r="K303" s="21" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="304" spans="1:11">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="14" t="s">
         <v>600</v>
       </c>
       <c r="B304" s="14" t="s">
         <v>776</v>
       </c>
-      <c r="C304" s="22" t="s">
+      <c r="C304" s="20" t="s">
         <v>804</v>
       </c>
       <c r="D304" s="14" t="s">
@@ -11969,19 +11983,19 @@
       </c>
       <c r="H304" s="15"/>
       <c r="I304" s="15"/>
-      <c r="J304" s="22"/>
-      <c r="K304" s="22" t="s">
+      <c r="J304" s="20"/>
+      <c r="K304" s="20" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="305" spans="1:11">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="16" t="s">
         <v>600</v>
       </c>
       <c r="B305" s="16" t="s">
         <v>777</v>
       </c>
-      <c r="C305" s="23" t="s">
+      <c r="C305" s="21" t="s">
         <v>805</v>
       </c>
       <c r="D305" s="16" t="s">
@@ -11998,19 +12012,19 @@
       </c>
       <c r="H305" s="17"/>
       <c r="I305" s="17"/>
-      <c r="J305" s="23"/>
-      <c r="K305" s="23" t="s">
+      <c r="J305" s="21"/>
+      <c r="K305" s="21" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="306" spans="1:11">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="14" t="s">
         <v>600</v>
       </c>
       <c r="B306" s="14" t="s">
         <v>640</v>
       </c>
-      <c r="C306" s="22" t="s">
+      <c r="C306" s="20" t="s">
         <v>641</v>
       </c>
       <c r="D306" s="14" t="s">
@@ -12027,19 +12041,19 @@
       </c>
       <c r="H306" s="15"/>
       <c r="I306" s="15"/>
-      <c r="J306" s="22"/>
-      <c r="K306" s="22" t="s">
+      <c r="J306" s="20"/>
+      <c r="K306" s="20" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="307" spans="1:11">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="16" t="s">
         <v>600</v>
       </c>
       <c r="B307" s="16" t="s">
         <v>643</v>
       </c>
-      <c r="C307" s="23" t="s">
+      <c r="C307" s="21" t="s">
         <v>644</v>
       </c>
       <c r="D307" s="16" t="s">
@@ -12056,19 +12070,19 @@
       </c>
       <c r="H307" s="17"/>
       <c r="I307" s="17"/>
-      <c r="J307" s="23"/>
-      <c r="K307" s="23" t="s">
+      <c r="J307" s="21"/>
+      <c r="K307" s="21" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="308" spans="1:11">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="14" t="s">
         <v>600</v>
       </c>
       <c r="B308" s="14" t="s">
         <v>645</v>
       </c>
-      <c r="C308" s="22" t="s">
+      <c r="C308" s="20" t="s">
         <v>646</v>
       </c>
       <c r="D308" s="14" t="s">
@@ -12085,19 +12099,19 @@
       </c>
       <c r="H308" s="15"/>
       <c r="I308" s="15"/>
-      <c r="J308" s="22"/>
-      <c r="K308" s="22" t="s">
+      <c r="J308" s="20"/>
+      <c r="K308" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="309" spans="1:11">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="16" t="s">
         <v>600</v>
       </c>
       <c r="B309" s="16" t="s">
         <v>647</v>
       </c>
-      <c r="C309" s="23" t="s">
+      <c r="C309" s="21" t="s">
         <v>648</v>
       </c>
       <c r="D309" s="16" t="s">
@@ -12114,19 +12128,19 @@
       </c>
       <c r="H309" s="17"/>
       <c r="I309" s="17"/>
-      <c r="J309" s="23"/>
-      <c r="K309" s="23" t="s">
+      <c r="J309" s="21"/>
+      <c r="K309" s="21" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="310" spans="1:11">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="14" t="s">
         <v>600</v>
       </c>
       <c r="B310" s="14" t="s">
         <v>649</v>
       </c>
-      <c r="C310" s="22" t="s">
+      <c r="C310" s="20" t="s">
         <v>650</v>
       </c>
       <c r="D310" s="14" t="s">
@@ -12143,19 +12157,19 @@
       </c>
       <c r="H310" s="15"/>
       <c r="I310" s="15"/>
-      <c r="J310" s="22"/>
-      <c r="K310" s="22" t="s">
+      <c r="J310" s="20"/>
+      <c r="K310" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="311" spans="1:11">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="16" t="s">
         <v>600</v>
       </c>
       <c r="B311" s="16" t="s">
         <v>651</v>
       </c>
-      <c r="C311" s="23" t="s">
+      <c r="C311" s="21" t="s">
         <v>652</v>
       </c>
       <c r="D311" s="16" t="s">
@@ -12172,19 +12186,19 @@
       </c>
       <c r="H311" s="17"/>
       <c r="I311" s="17"/>
-      <c r="J311" s="23"/>
-      <c r="K311" s="23" t="s">
+      <c r="J311" s="21"/>
+      <c r="K311" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="312" spans="1:11">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="14" t="s">
         <v>600</v>
       </c>
       <c r="B312" s="14" t="s">
         <v>653</v>
       </c>
-      <c r="C312" s="22" t="s">
+      <c r="C312" s="20" t="s">
         <v>654</v>
       </c>
       <c r="D312" s="14" t="s">
@@ -12201,19 +12215,19 @@
       </c>
       <c r="H312" s="15"/>
       <c r="I312" s="15"/>
-      <c r="J312" s="22"/>
-      <c r="K312" s="22" t="s">
+      <c r="J312" s="20"/>
+      <c r="K312" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="313" spans="1:11">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="16" t="s">
         <v>600</v>
       </c>
       <c r="B313" s="16" t="s">
         <v>655</v>
       </c>
-      <c r="C313" s="23" t="s">
+      <c r="C313" s="21" t="s">
         <v>656</v>
       </c>
       <c r="D313" s="16" t="s">
@@ -12232,19 +12246,19 @@
       <c r="I313" s="17">
         <v>42704</v>
       </c>
-      <c r="J313" s="23"/>
-      <c r="K313" s="23" t="s">
+      <c r="J313" s="21"/>
+      <c r="K313" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="314" spans="1:11">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="14" t="s">
         <v>600</v>
       </c>
       <c r="B314" s="14" t="s">
         <v>635</v>
       </c>
-      <c r="C314" s="22" t="s">
+      <c r="C314" s="20" t="s">
         <v>635</v>
       </c>
       <c r="D314" s="14" t="s">
@@ -12265,19 +12279,19 @@
       <c r="I314" s="15">
         <v>43464</v>
       </c>
-      <c r="J314" s="22"/>
-      <c r="K314" s="22" t="s">
+      <c r="J314" s="20"/>
+      <c r="K314" s="20" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="315" spans="1:11">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="16" t="s">
         <v>600</v>
       </c>
       <c r="B315" s="16" t="s">
         <v>636</v>
       </c>
-      <c r="C315" s="23" t="s">
+      <c r="C315" s="21" t="s">
         <v>628</v>
       </c>
       <c r="D315" s="16" t="s">
@@ -12296,21 +12310,21 @@
       <c r="I315" s="17">
         <v>43464</v>
       </c>
-      <c r="J315" s="23" t="s">
+      <c r="J315" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="K315" s="23" t="s">
+      <c r="K315" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="316" spans="1:11">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="14" t="s">
         <v>600</v>
       </c>
       <c r="B316" s="14" t="s">
         <v>637</v>
       </c>
-      <c r="C316" s="22" t="s">
+      <c r="C316" s="20" t="s">
         <v>628</v>
       </c>
       <c r="D316" s="14" t="s">
@@ -12329,19 +12343,19 @@
       <c r="I316" s="15">
         <v>43464</v>
       </c>
-      <c r="J316" s="22"/>
-      <c r="K316" s="22" t="s">
+      <c r="J316" s="20"/>
+      <c r="K316" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="317" spans="1:11">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="16" t="s">
         <v>600</v>
       </c>
       <c r="B317" s="16" t="s">
         <v>627</v>
       </c>
-      <c r="C317" s="23" t="s">
+      <c r="C317" s="21" t="s">
         <v>628</v>
       </c>
       <c r="D317" s="16" t="s">
@@ -12360,21 +12374,21 @@
       <c r="I317" s="17">
         <v>43373</v>
       </c>
-      <c r="J317" s="23" t="s">
+      <c r="J317" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="K317" s="23" t="s">
+      <c r="K317" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="318" spans="1:11">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="14" t="s">
         <v>600</v>
       </c>
       <c r="B318" s="14" t="s">
         <v>629</v>
       </c>
-      <c r="C318" s="22" t="s">
+      <c r="C318" s="20" t="s">
         <v>630</v>
       </c>
       <c r="D318" s="14" t="s">
@@ -12393,21 +12407,21 @@
       <c r="I318" s="15">
         <v>43373</v>
       </c>
-      <c r="J318" s="22" t="s">
+      <c r="J318" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="K318" s="22" t="s">
+      <c r="K318" s="20" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="319" spans="1:11">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="16" t="s">
         <v>600</v>
       </c>
       <c r="B319" s="16" t="s">
         <v>632</v>
       </c>
-      <c r="C319" s="23" t="s">
+      <c r="C319" s="21" t="s">
         <v>630</v>
       </c>
       <c r="D319" s="16" t="s">
@@ -12426,19 +12440,19 @@
       <c r="I319" s="17">
         <v>43373</v>
       </c>
-      <c r="J319" s="23"/>
-      <c r="K319" s="23" t="s">
+      <c r="J319" s="21"/>
+      <c r="K319" s="21" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="320" spans="1:11">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="14" t="s">
         <v>600</v>
       </c>
       <c r="B320" s="14" t="s">
         <v>633</v>
       </c>
-      <c r="C320" s="22" t="s">
+      <c r="C320" s="20" t="s">
         <v>630</v>
       </c>
       <c r="D320" s="14" t="s">
@@ -12457,21 +12471,21 @@
       <c r="I320" s="15">
         <v>43373</v>
       </c>
-      <c r="J320" s="22" t="s">
+      <c r="J320" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="K320" s="22" t="s">
+      <c r="K320" s="20" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="321" spans="1:11">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="16" t="s">
         <v>600</v>
       </c>
       <c r="B321" s="16" t="s">
         <v>634</v>
       </c>
-      <c r="C321" s="23" t="s">
+      <c r="C321" s="21" t="s">
         <v>630</v>
       </c>
       <c r="D321" s="16" t="s">
@@ -12490,19 +12504,19 @@
       <c r="I321" s="17">
         <v>43373</v>
       </c>
-      <c r="J321" s="23"/>
-      <c r="K321" s="23" t="s">
+      <c r="J321" s="21"/>
+      <c r="K321" s="21" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="322" spans="1:11">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="14" t="s">
         <v>600</v>
       </c>
       <c r="B322" s="14" t="s">
         <v>601</v>
       </c>
-      <c r="C322" s="22" t="s">
+      <c r="C322" s="20" t="s">
         <v>601</v>
       </c>
       <c r="D322" s="14" t="s">
@@ -12521,21 +12535,21 @@
         <v>40305</v>
       </c>
       <c r="I322" s="15"/>
-      <c r="J322" s="22" t="s">
+      <c r="J322" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K322" s="22" t="s">
+      <c r="K322" s="20" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="323" spans="1:11">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="16" t="s">
         <v>663</v>
       </c>
       <c r="B323" s="16" t="s">
         <v>683</v>
       </c>
-      <c r="C323" s="23" t="s">
+      <c r="C323" s="21" t="s">
         <v>684</v>
       </c>
       <c r="D323" s="16" t="s">
@@ -12554,19 +12568,19 @@
       <c r="I323" s="17">
         <v>43069</v>
       </c>
-      <c r="J323" s="23"/>
-      <c r="K323" s="23" t="s">
+      <c r="J323" s="21"/>
+      <c r="K323" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="324" spans="1:11">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="14" t="s">
         <v>663</v>
       </c>
       <c r="B324" s="14" t="s">
         <v>673</v>
       </c>
-      <c r="C324" s="22" t="s">
+      <c r="C324" s="20" t="s">
         <v>671</v>
       </c>
       <c r="D324" s="14" t="s">
@@ -12583,19 +12597,19 @@
       </c>
       <c r="H324" s="15"/>
       <c r="I324" s="15"/>
-      <c r="J324" s="22"/>
-      <c r="K324" s="22" t="s">
+      <c r="J324" s="20"/>
+      <c r="K324" s="20" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="325" spans="1:11">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="16" t="s">
         <v>663</v>
       </c>
       <c r="B325" s="16" t="s">
         <v>674</v>
       </c>
-      <c r="C325" s="23" t="s">
+      <c r="C325" s="21" t="s">
         <v>671</v>
       </c>
       <c r="D325" s="16" t="s">
@@ -12612,19 +12626,19 @@
       </c>
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
-      <c r="J325" s="23"/>
-      <c r="K325" s="23" t="s">
+      <c r="J325" s="21"/>
+      <c r="K325" s="21" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="326" spans="1:11">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="14" t="s">
         <v>663</v>
       </c>
       <c r="B326" s="14" t="s">
         <v>675</v>
       </c>
-      <c r="C326" s="22" t="s">
+      <c r="C326" s="20" t="s">
         <v>665</v>
       </c>
       <c r="D326" s="14" t="s">
@@ -12641,19 +12655,19 @@
       </c>
       <c r="H326" s="15"/>
       <c r="I326" s="15"/>
-      <c r="J326" s="22"/>
-      <c r="K326" s="22" t="s">
+      <c r="J326" s="20"/>
+      <c r="K326" s="20" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="327" spans="1:11">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="16" t="s">
         <v>663</v>
       </c>
       <c r="B327" s="16" t="s">
         <v>676</v>
       </c>
-      <c r="C327" s="23" t="s">
+      <c r="C327" s="21" t="s">
         <v>671</v>
       </c>
       <c r="D327" s="16" t="s">
@@ -12670,19 +12684,19 @@
       </c>
       <c r="H327" s="17"/>
       <c r="I327" s="17"/>
-      <c r="J327" s="23"/>
-      <c r="K327" s="23" t="s">
+      <c r="J327" s="21"/>
+      <c r="K327" s="21" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="328" spans="1:11">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="14" t="s">
         <v>663</v>
       </c>
       <c r="B328" s="14" t="s">
         <v>677</v>
       </c>
-      <c r="C328" s="22" t="s">
+      <c r="C328" s="20" t="s">
         <v>671</v>
       </c>
       <c r="D328" s="14" t="s">
@@ -12699,19 +12713,19 @@
       </c>
       <c r="H328" s="15"/>
       <c r="I328" s="15"/>
-      <c r="J328" s="22"/>
-      <c r="K328" s="22" t="s">
+      <c r="J328" s="20"/>
+      <c r="K328" s="20" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="329" spans="1:11">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="16" t="s">
         <v>663</v>
       </c>
       <c r="B329" s="16" t="s">
         <v>678</v>
       </c>
-      <c r="C329" s="23" t="s">
+      <c r="C329" s="21" t="s">
         <v>665</v>
       </c>
       <c r="D329" s="16" t="s">
@@ -12728,19 +12742,19 @@
       </c>
       <c r="H329" s="17"/>
       <c r="I329" s="17"/>
-      <c r="J329" s="23"/>
-      <c r="K329" s="23" t="s">
+      <c r="J329" s="21"/>
+      <c r="K329" s="21" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="330" spans="1:11">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="14" t="s">
         <v>663</v>
       </c>
       <c r="B330" s="14" t="s">
         <v>679</v>
       </c>
-      <c r="C330" s="22" t="s">
+      <c r="C330" s="20" t="s">
         <v>665</v>
       </c>
       <c r="D330" s="14" t="s">
@@ -12757,19 +12771,19 @@
       </c>
       <c r="H330" s="15"/>
       <c r="I330" s="15"/>
-      <c r="J330" s="22"/>
-      <c r="K330" s="22" t="s">
+      <c r="J330" s="20"/>
+      <c r="K330" s="20" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="331" spans="1:11">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="16" t="s">
         <v>663</v>
       </c>
       <c r="B331" s="16" t="s">
         <v>680</v>
       </c>
-      <c r="C331" s="23" t="s">
+      <c r="C331" s="21" t="s">
         <v>665</v>
       </c>
       <c r="D331" s="16" t="s">
@@ -12786,19 +12800,19 @@
       </c>
       <c r="H331" s="17"/>
       <c r="I331" s="17"/>
-      <c r="J331" s="23"/>
-      <c r="K331" s="23" t="s">
+      <c r="J331" s="21"/>
+      <c r="K331" s="21" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="332" spans="1:11">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="14" t="s">
         <v>663</v>
       </c>
       <c r="B332" s="14" t="s">
         <v>681</v>
       </c>
-      <c r="C332" s="22" t="s">
+      <c r="C332" s="20" t="s">
         <v>665</v>
       </c>
       <c r="D332" s="14" t="s">
@@ -12815,19 +12829,19 @@
       </c>
       <c r="H332" s="15"/>
       <c r="I332" s="15"/>
-      <c r="J332" s="22"/>
-      <c r="K332" s="22" t="s">
+      <c r="J332" s="20"/>
+      <c r="K332" s="20" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="333" spans="1:11">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="16" t="s">
         <v>663</v>
       </c>
       <c r="B333" s="16" t="s">
         <v>682</v>
       </c>
-      <c r="C333" s="23" t="s">
+      <c r="C333" s="21" t="s">
         <v>671</v>
       </c>
       <c r="D333" s="16" t="s">
@@ -12844,19 +12858,19 @@
       </c>
       <c r="H333" s="17"/>
       <c r="I333" s="17"/>
-      <c r="J333" s="23"/>
-      <c r="K333" s="23" t="s">
+      <c r="J333" s="21"/>
+      <c r="K333" s="21" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="334" spans="1:11">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="14" t="s">
         <v>663</v>
       </c>
       <c r="B334" s="14" t="s">
         <v>672</v>
       </c>
-      <c r="C334" s="22" t="s">
+      <c r="C334" s="20" t="s">
         <v>671</v>
       </c>
       <c r="D334" s="14" t="s">
@@ -12873,19 +12887,19 @@
       </c>
       <c r="H334" s="15"/>
       <c r="I334" s="15"/>
-      <c r="J334" s="22"/>
-      <c r="K334" s="22" t="s">
+      <c r="J334" s="20"/>
+      <c r="K334" s="20" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="335" spans="1:11">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="16" t="s">
         <v>663</v>
       </c>
       <c r="B335" s="16" t="s">
         <v>670</v>
       </c>
-      <c r="C335" s="23" t="s">
+      <c r="C335" s="21" t="s">
         <v>671</v>
       </c>
       <c r="D335" s="16" t="s">
@@ -12902,21 +12916,21 @@
       </c>
       <c r="H335" s="17"/>
       <c r="I335" s="17"/>
-      <c r="J335" s="23" t="s">
+      <c r="J335" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="K335" s="23" t="s">
+      <c r="K335" s="21" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="336" spans="1:11">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="14" t="s">
         <v>663</v>
       </c>
       <c r="B336" s="14" t="s">
         <v>667</v>
       </c>
-      <c r="C336" s="22" t="s">
+      <c r="C336" s="20" t="s">
         <v>665</v>
       </c>
       <c r="D336" s="14" t="s">
@@ -12933,21 +12947,21 @@
       </c>
       <c r="H336" s="15"/>
       <c r="I336" s="15"/>
-      <c r="J336" s="22" t="s">
+      <c r="J336" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="K336" s="22" t="s">
+      <c r="K336" s="20" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="337" spans="1:11">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="16" t="s">
         <v>663</v>
       </c>
       <c r="B337" s="16" t="s">
         <v>668</v>
       </c>
-      <c r="C337" s="23" t="s">
+      <c r="C337" s="21" t="s">
         <v>665</v>
       </c>
       <c r="D337" s="16" t="s">
@@ -12964,21 +12978,21 @@
       </c>
       <c r="H337" s="17"/>
       <c r="I337" s="17"/>
-      <c r="J337" s="23" t="s">
+      <c r="J337" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="K337" s="23" t="s">
+      <c r="K337" s="21" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="338" spans="1:11">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="14" t="s">
         <v>663</v>
       </c>
       <c r="B338" s="14" t="s">
         <v>669</v>
       </c>
-      <c r="C338" s="22" t="s">
+      <c r="C338" s="20" t="s">
         <v>665</v>
       </c>
       <c r="D338" s="14" t="s">
@@ -12995,21 +13009,21 @@
       </c>
       <c r="H338" s="15"/>
       <c r="I338" s="15"/>
-      <c r="J338" s="22" t="s">
+      <c r="J338" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="K338" s="22" t="s">
+      <c r="K338" s="20" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="339" spans="1:11">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="16" t="s">
         <v>663</v>
       </c>
       <c r="B339" s="16" t="s">
         <v>664</v>
       </c>
-      <c r="C339" s="23" t="s">
+      <c r="C339" s="21" t="s">
         <v>665</v>
       </c>
       <c r="D339" s="16" t="s">
@@ -13026,21 +13040,21 @@
       </c>
       <c r="H339" s="17"/>
       <c r="I339" s="17"/>
-      <c r="J339" s="23" t="s">
+      <c r="J339" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="K339" s="23" t="s">
+      <c r="K339" s="21" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="340" spans="1:11">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="14" t="s">
         <v>685</v>
       </c>
       <c r="B340" s="14" t="s">
         <v>694</v>
       </c>
-      <c r="C340" s="22" t="s">
+      <c r="C340" s="20" t="s">
         <v>695</v>
       </c>
       <c r="D340" s="14" t="s">
@@ -13057,19 +13071,19 @@
       </c>
       <c r="H340" s="15"/>
       <c r="I340" s="15"/>
-      <c r="J340" s="22"/>
-      <c r="K340" s="22" t="s">
+      <c r="J340" s="20"/>
+      <c r="K340" s="20" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="341" spans="1:11">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="16" t="s">
         <v>685</v>
       </c>
       <c r="B341" s="16" t="s">
         <v>696</v>
       </c>
-      <c r="C341" s="23" t="s">
+      <c r="C341" s="21" t="s">
         <v>697</v>
       </c>
       <c r="D341" s="16" t="s">
@@ -13086,19 +13100,19 @@
       </c>
       <c r="H341" s="17"/>
       <c r="I341" s="17"/>
-      <c r="J341" s="23"/>
-      <c r="K341" s="23" t="s">
+      <c r="J341" s="21"/>
+      <c r="K341" s="21" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="342" spans="1:11">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="14" t="s">
         <v>685</v>
       </c>
       <c r="B342" s="14" t="s">
         <v>698</v>
       </c>
-      <c r="C342" s="22" t="s">
+      <c r="C342" s="20" t="s">
         <v>699</v>
       </c>
       <c r="D342" s="14" t="s">
@@ -13115,19 +13129,19 @@
       </c>
       <c r="H342" s="15"/>
       <c r="I342" s="15"/>
-      <c r="J342" s="22"/>
-      <c r="K342" s="22" t="s">
+      <c r="J342" s="20"/>
+      <c r="K342" s="20" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="343" spans="1:11">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="16" t="s">
         <v>685</v>
       </c>
       <c r="B343" s="16" t="s">
         <v>700</v>
       </c>
-      <c r="C343" s="23" t="s">
+      <c r="C343" s="21" t="s">
         <v>701</v>
       </c>
       <c r="D343" s="16" t="s">
@@ -13144,19 +13158,19 @@
       </c>
       <c r="H343" s="17"/>
       <c r="I343" s="17"/>
-      <c r="J343" s="23"/>
-      <c r="K343" s="23" t="s">
+      <c r="J343" s="21"/>
+      <c r="K343" s="21" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="344" spans="1:11">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="14" t="s">
         <v>685</v>
       </c>
       <c r="B344" s="14" t="s">
         <v>702</v>
       </c>
-      <c r="C344" s="22" t="s">
+      <c r="C344" s="20" t="s">
         <v>703</v>
       </c>
       <c r="D344" s="14" t="s">
@@ -13173,19 +13187,19 @@
       </c>
       <c r="H344" s="15"/>
       <c r="I344" s="15"/>
-      <c r="J344" s="22"/>
-      <c r="K344" s="22" t="s">
+      <c r="J344" s="20"/>
+      <c r="K344" s="20" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="345" spans="1:11">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="16" t="s">
         <v>685</v>
       </c>
       <c r="B345" s="16" t="s">
         <v>704</v>
       </c>
-      <c r="C345" s="23" t="s">
+      <c r="C345" s="21" t="s">
         <v>705</v>
       </c>
       <c r="D345" s="16" t="s">
@@ -13202,19 +13216,19 @@
       </c>
       <c r="H345" s="17"/>
       <c r="I345" s="17"/>
-      <c r="J345" s="23"/>
-      <c r="K345" s="23" t="s">
+      <c r="J345" s="21"/>
+      <c r="K345" s="21" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="346" spans="1:11">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="14" t="s">
         <v>685</v>
       </c>
       <c r="B346" s="14" t="s">
         <v>706</v>
       </c>
-      <c r="C346" s="22" t="s">
+      <c r="C346" s="20" t="s">
         <v>707</v>
       </c>
       <c r="D346" s="14" t="s">
@@ -13231,19 +13245,19 @@
       </c>
       <c r="H346" s="15"/>
       <c r="I346" s="15"/>
-      <c r="J346" s="22"/>
-      <c r="K346" s="22" t="s">
+      <c r="J346" s="20"/>
+      <c r="K346" s="20" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="347" spans="1:11">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="16" t="s">
         <v>685</v>
       </c>
       <c r="B347" s="16" t="s">
         <v>708</v>
       </c>
-      <c r="C347" s="23" t="s">
+      <c r="C347" s="21" t="s">
         <v>709</v>
       </c>
       <c r="D347" s="16" t="s">
@@ -13260,19 +13274,19 @@
       </c>
       <c r="H347" s="17"/>
       <c r="I347" s="17"/>
-      <c r="J347" s="23"/>
-      <c r="K347" s="23" t="s">
+      <c r="J347" s="21"/>
+      <c r="K347" s="21" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="348" spans="1:11">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="14" t="s">
         <v>685</v>
       </c>
       <c r="B348" s="14" t="s">
         <v>710</v>
       </c>
-      <c r="C348" s="22" t="s">
+      <c r="C348" s="20" t="s">
         <v>711</v>
       </c>
       <c r="D348" s="14" t="s">
@@ -13289,19 +13303,19 @@
       </c>
       <c r="H348" s="15"/>
       <c r="I348" s="15"/>
-      <c r="J348" s="22"/>
-      <c r="K348" s="22" t="s">
+      <c r="J348" s="20"/>
+      <c r="K348" s="20" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="349" spans="1:11">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="16" t="s">
         <v>685</v>
       </c>
       <c r="B349" s="16" t="s">
         <v>712</v>
       </c>
-      <c r="C349" s="23" t="s">
+      <c r="C349" s="21" t="s">
         <v>713</v>
       </c>
       <c r="D349" s="16" t="s">
@@ -13318,19 +13332,19 @@
       </c>
       <c r="H349" s="17"/>
       <c r="I349" s="17"/>
-      <c r="J349" s="23"/>
-      <c r="K349" s="23" t="s">
+      <c r="J349" s="21"/>
+      <c r="K349" s="21" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="350" spans="1:11">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="14" t="s">
         <v>685</v>
       </c>
       <c r="B350" s="14" t="s">
         <v>714</v>
       </c>
-      <c r="C350" s="22" t="s">
+      <c r="C350" s="20" t="s">
         <v>715</v>
       </c>
       <c r="D350" s="14" t="s">
@@ -13347,19 +13361,19 @@
       </c>
       <c r="H350" s="15"/>
       <c r="I350" s="15"/>
-      <c r="J350" s="22"/>
-      <c r="K350" s="22" t="s">
+      <c r="J350" s="20"/>
+      <c r="K350" s="20" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="351" spans="1:11">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="16" t="s">
         <v>685</v>
       </c>
       <c r="B351" s="16" t="s">
         <v>716</v>
       </c>
-      <c r="C351" s="23" t="s">
+      <c r="C351" s="21" t="s">
         <v>717</v>
       </c>
       <c r="D351" s="16" t="s">
@@ -13376,19 +13390,19 @@
       </c>
       <c r="H351" s="17"/>
       <c r="I351" s="17"/>
-      <c r="J351" s="23"/>
-      <c r="K351" s="23" t="s">
+      <c r="J351" s="21"/>
+      <c r="K351" s="21" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="352" spans="1:11">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="14" t="s">
         <v>685</v>
       </c>
       <c r="B352" s="14" t="s">
         <v>718</v>
       </c>
-      <c r="C352" s="22" t="s">
+      <c r="C352" s="20" t="s">
         <v>719</v>
       </c>
       <c r="D352" s="14" t="s">
@@ -13405,19 +13419,19 @@
       </c>
       <c r="H352" s="15"/>
       <c r="I352" s="15"/>
-      <c r="J352" s="22"/>
-      <c r="K352" s="22" t="s">
+      <c r="J352" s="20"/>
+      <c r="K352" s="20" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="353" spans="1:11">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="16" t="s">
         <v>685</v>
       </c>
       <c r="B353" s="16" t="s">
         <v>720</v>
       </c>
-      <c r="C353" s="23" t="s">
+      <c r="C353" s="21" t="s">
         <v>721</v>
       </c>
       <c r="D353" s="16" t="s">
@@ -13434,19 +13448,19 @@
       </c>
       <c r="H353" s="17"/>
       <c r="I353" s="17"/>
-      <c r="J353" s="23"/>
-      <c r="K353" s="23" t="s">
+      <c r="J353" s="21"/>
+      <c r="K353" s="21" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="354" spans="1:11">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="14" t="s">
         <v>685</v>
       </c>
       <c r="B354" s="14" t="s">
         <v>722</v>
       </c>
-      <c r="C354" s="22" t="s">
+      <c r="C354" s="20" t="s">
         <v>723</v>
       </c>
       <c r="D354" s="14" t="s">
@@ -13463,19 +13477,19 @@
       </c>
       <c r="H354" s="15"/>
       <c r="I354" s="15"/>
-      <c r="J354" s="22"/>
-      <c r="K354" s="22" t="s">
+      <c r="J354" s="20"/>
+      <c r="K354" s="20" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="355" spans="1:11">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="16" t="s">
         <v>685</v>
       </c>
       <c r="B355" s="16" t="s">
         <v>686</v>
       </c>
-      <c r="C355" s="23" t="s">
+      <c r="C355" s="21" t="s">
         <v>687</v>
       </c>
       <c r="D355" s="16" t="s">
@@ -13492,19 +13506,19 @@
       </c>
       <c r="H355" s="17"/>
       <c r="I355" s="17"/>
-      <c r="J355" s="23"/>
-      <c r="K355" s="23" t="s">
+      <c r="J355" s="21"/>
+      <c r="K355" s="21" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="356" spans="1:11">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="14" t="s">
         <v>685</v>
       </c>
       <c r="B356" s="14" t="s">
         <v>688</v>
       </c>
-      <c r="C356" s="22" t="s">
+      <c r="C356" s="20" t="s">
         <v>689</v>
       </c>
       <c r="D356" s="14" t="s">
@@ -13521,19 +13535,19 @@
       </c>
       <c r="H356" s="15"/>
       <c r="I356" s="15"/>
-      <c r="J356" s="22"/>
-      <c r="K356" s="22" t="s">
+      <c r="J356" s="20"/>
+      <c r="K356" s="20" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="357" spans="1:11">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="16" t="s">
         <v>685</v>
       </c>
       <c r="B357" s="16" t="s">
         <v>690</v>
       </c>
-      <c r="C357" s="23" t="s">
+      <c r="C357" s="21" t="s">
         <v>691</v>
       </c>
       <c r="D357" s="16" t="s">
@@ -13550,37 +13564,37 @@
       </c>
       <c r="H357" s="17"/>
       <c r="I357" s="17"/>
-      <c r="J357" s="23"/>
-      <c r="K357" s="23" t="s">
+      <c r="J357" s="21"/>
+      <c r="K357" s="21" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="358" spans="1:11">
-      <c r="A358" s="20" t="s">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A358" s="18" t="s">
         <v>685</v>
       </c>
-      <c r="B358" s="20" t="s">
+      <c r="B358" s="18" t="s">
         <v>692</v>
       </c>
-      <c r="C358" s="24" t="s">
+      <c r="C358" s="22" t="s">
         <v>693</v>
       </c>
-      <c r="D358" s="20" t="s">
+      <c r="D358" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E358" s="25" t="s">
+      <c r="E358" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="F358" s="25">
+      <c r="F358" s="23">
         <v>42612</v>
       </c>
-      <c r="G358" s="25">
+      <c r="G358" s="23">
         <v>43342</v>
       </c>
-      <c r="H358" s="25"/>
-      <c r="I358" s="25"/>
-      <c r="J358" s="24"/>
-      <c r="K358" s="24" t="s">
+      <c r="H358" s="23"/>
+      <c r="I358" s="23"/>
+      <c r="J358" s="22"/>
+      <c r="K358" s="22" t="s">
         <v>428</v>
       </c>
     </row>
